--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Planform" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="PER3_9x38SF" sheetId="12" r:id="rId9"/>
     <sheet name="PER3_9x9" sheetId="10" r:id="rId10"/>
     <sheet name="SteadyStateThrust" sheetId="11" r:id="rId11"/>
+    <sheet name="PER3_8x38SF" sheetId="14" r:id="rId12"/>
+    <sheet name="MassBalance" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621" iterateCount="1000" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1642">
   <si>
     <t>Scale size</t>
   </si>
@@ -4133,6 +4135,828 @@
   </si>
   <si>
     <t>Operational RPM should be between 8000 and 10000rpm</t>
+  </si>
+  <si>
+    <t>8 x 3.8SFP propeller</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Mass [g]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8x3.8SF                  (8x38SF.dat)                                 12/25/14                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1414      0.0642       0.011       0.171       0.295              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.8        0.03      0.0581      0.1394      0.0647       0.011       0.172       0.291              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6        0.05      0.1138      0.1373      0.0650       0.011       0.173       0.287              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5        0.08      0.1670      0.1348      0.0653       0.011       0.174       0.281              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3        0.11      0.2177      0.1323      0.0655       0.011       0.174       0.276              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.1        0.13      0.2658      0.1296      0.0657       0.011       0.175       0.271              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.9        0.16      0.3114      0.1267      0.0658       0.011       0.175       0.264              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.7        0.19      0.3544      0.1235      0.0658       0.011       0.175       0.258              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6.5        0.22      0.3946      0.1201      0.0656       0.011       0.174       0.251              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.4        0.24      0.4320      0.1163      0.0653       0.011       0.174       0.243              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8.2        0.27      0.4666      0.1123      0.0649       0.011       0.172       0.234              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.0        0.30      0.4987      0.1080      0.0642       0.011       0.171       0.225              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.8        0.32      0.5281      0.1037      0.0635       0.011       0.169       0.216              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.6        0.35      0.5547      0.0993      0.0628       0.011       0.167       0.207              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.4        0.38      0.5789      0.0947      0.0618       0.010       0.164       0.198              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12.3        0.40      0.6007      0.0900      0.0606       0.010       0.161       0.188              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.1        0.43      0.6201      0.0850      0.0591       0.010       0.157       0.177              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.9        0.46      0.6371      0.0796      0.0573       0.010       0.152       0.166              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14.7        0.49      0.6518      0.0741      0.0552       0.009       0.147       0.155              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.5        0.51      0.6648      0.0685      0.0528       0.009       0.140       0.143              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16.3        0.54      0.6750      0.0625      0.0500       0.008       0.133       0.131              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17.2        0.57      0.6822      0.0563      0.0467       0.008       0.124       0.118              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.0        0.59      0.6849      0.0499      0.0432       0.007       0.115       0.104              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.8        0.62      0.6815      0.0431      0.0393       0.007       0.104       0.090              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19.6        0.65      0.6704      0.0362      0.0349       0.006       0.093       0.076              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.4        0.67      0.6448      0.0292      0.0306       0.005       0.081       0.061              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.2        0.70      0.5952      0.0221      0.0260       0.004       0.069       0.046              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.1        0.73      0.5037      0.0147      0.0213       0.004       0.057       0.031              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.9        0.75      0.3361      0.0074      0.0165       0.003       0.044       0.015              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23.7        0.78     -0.0058     -0.0001      0.0117       0.002       0.031       0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1415      0.0643       0.021       0.267       0.462              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.0        0.03      0.0566      0.1395      0.0646       0.021       0.268       0.455              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.0        0.05      0.1109      0.1373      0.0649       0.021       0.270       0.448              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.0        0.08      0.1629      0.1349      0.0652       0.021       0.271       0.440              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.0        0.10      0.2126      0.1324      0.0653       0.022       0.271       0.432              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.0        0.13      0.2598      0.1296      0.0654       0.022       0.272       0.423              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6.0        0.16      0.3047      0.1267      0.0654       0.022       0.272       0.413              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.0        0.18      0.3470      0.1235      0.0653       0.022       0.271       0.403              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.9        0.21      0.3868      0.1201      0.0651       0.021       0.271       0.392              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8.9        0.24      0.4239      0.1163      0.0648       0.021       0.269       0.379              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.9        0.26      0.4583      0.1124      0.0643       0.021       0.267       0.366              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.9        0.29      0.4903      0.1081      0.0636       0.021       0.264       0.353              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.9        0.31      0.5196      0.1038      0.0629       0.021       0.261       0.339              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12.9        0.34      0.5463      0.0993      0.0620       0.020       0.258       0.324              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.9        0.37      0.5706      0.0947      0.0610       0.020       0.253       0.309              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14.9        0.39      0.5924      0.0900      0.0598       0.020       0.248       0.294              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.9        0.42      0.6120      0.0851      0.0584       0.019       0.243       0.278              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16.9        0.45      0.6292      0.0798      0.0566       0.019       0.235       0.260              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17.9        0.47      0.6442      0.0743      0.0544       0.018       0.226       0.242              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.9        0.50      0.6574      0.0686      0.0520       0.017       0.216       0.224              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        19.9        0.52      0.6682      0.0627      0.0492       0.016       0.205       0.205              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.9        0.55      0.6761      0.0565      0.0460       0.015       0.191       0.184              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.9        0.58      0.6796      0.0500      0.0425       0.014       0.176       0.163              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.9        0.60      0.6765      0.0431      0.0385       0.013       0.160       0.141              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23.8        0.63      0.6663      0.0362      0.0342       0.011       0.142       0.118              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24.8        0.66      0.6412      0.0293      0.0299       0.010       0.124       0.095              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.8        0.68      0.5920      0.0221      0.0255       0.008       0.106       0.072              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        26.8        0.71      0.5008      0.0148      0.0210       0.007       0.087       0.048              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.8        0.73      0.3340      0.0075      0.0164       0.005       0.068       0.024              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        28.8        0.76     -0.0023      0.0000      0.0118       0.004       0.049       0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1416      0.0641       0.036       0.383       0.665              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.2        0.03      0.0563      0.1395      0.0643       0.037       0.385       0.655              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4        0.05      0.1103      0.1373      0.0646       0.037       0.386       0.645              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5        0.08      0.1621      0.1349      0.0647       0.037       0.387       0.633              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.7        0.10      0.2117      0.1323      0.0649       0.037       0.388       0.621              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.9        0.13      0.2589      0.1295      0.0649       0.037       0.388       0.608              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.1        0.16      0.3037      0.1264      0.0648       0.037       0.388       0.594              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8.3        0.18      0.3461      0.1233      0.0647       0.037       0.387       0.579              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.4        0.21      0.3861      0.1197      0.0644       0.037       0.385       0.562              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.6        0.23      0.4234      0.1160      0.0640       0.036       0.383       0.545              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.8        0.26      0.4582      0.1120      0.0634       0.036       0.379       0.526              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.0        0.29      0.4905      0.1078      0.0627       0.036       0.375       0.506              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14.2        0.31      0.5204      0.1034      0.0619       0.035       0.370       0.486              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.3        0.34      0.5479      0.0989      0.0609       0.035       0.364       0.464              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16.5        0.36      0.5730      0.0942      0.0597       0.034       0.357       0.442              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17.7        0.39      0.5956      0.0893      0.0584       0.033       0.349       0.420              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.9        0.42      0.6160      0.0844      0.0569       0.032       0.340       0.396              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.1        0.44      0.6342      0.0789      0.0549       0.031       0.328       0.371              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.2        0.47      0.6501      0.0733      0.0527       0.030       0.315       0.344              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.4        0.49      0.6642      0.0676      0.0502       0.029       0.300       0.317              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23.6        0.52      0.6756      0.0617      0.0474       0.027       0.283       0.290              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24.8        0.54      0.6835      0.0555      0.0442       0.025       0.265       0.261              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.9        0.57      0.6873      0.0490      0.0407       0.023       0.243       0.230              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.1        0.60      0.6851      0.0423      0.0368       0.021       0.220       0.199              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        28.3        0.62      0.6745      0.0355      0.0328       0.019       0.196       0.167              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        29.5        0.65      0.6483      0.0286      0.0286       0.016       0.171       0.134              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        30.7        0.67      0.5978      0.0216      0.0244       0.014       0.146       0.102              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        31.8        0.70      0.5051      0.0145      0.0201       0.011       0.120       0.068              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        33.0        0.73      0.3330      0.0073      0.0158       0.009       0.095       0.034              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        34.2        0.75     -0.0027      0.0000      0.0117       0.007       0.070       0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1425      0.0625       0.120       0.842       1.506              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.8        0.03      0.0597      0.1403      0.0629       0.121       0.846       1.483              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.6        0.05      0.1169      0.1379      0.0631       0.121       0.849       1.457              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.5        0.08      0.1716      0.1352      0.0633       0.122       0.852       1.429              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.3        0.11      0.2239      0.1324      0.0633       0.122       0.852       1.399              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.1        0.13      0.2737      0.1293      0.0632       0.122       0.851       1.367              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.9        0.16      0.3210      0.1260      0.0630       0.121       0.848       1.332              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12.8        0.19      0.3659      0.1224      0.0627       0.120       0.844       1.294              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14.6        0.21      0.4084      0.1185      0.0622       0.119       0.837       1.253              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16.4        0.24      0.4483      0.1144      0.0615       0.118       0.827       1.209              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.2        0.27      0.4857      0.1100      0.0606       0.116       0.816       1.162              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.1        0.29      0.5208      0.1054      0.0596       0.114       0.802       1.114              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.9        0.32      0.5539      0.1006      0.0583       0.112       0.785       1.063              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23.7        0.35      0.5846      0.0955      0.0569       0.109       0.765       1.010              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.5        0.37      0.6127      0.0904      0.0553       0.106       0.744       0.955              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.4        0.40      0.6382      0.0850      0.0535       0.103       0.720       0.899              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        29.2        0.43      0.6615      0.0796      0.0515       0.099       0.693       0.841              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        31.0        0.46      0.6826      0.0739      0.0493       0.095       0.663       0.781              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        32.8        0.48      0.7008      0.0681      0.0468       0.090       0.630       0.719              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        34.7        0.51      0.7150      0.0621      0.0442       0.085       0.595       0.657              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        36.5        0.54      0.7249      0.0560      0.0414       0.080       0.557       0.592              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        38.3        0.56      0.7308      0.0499      0.0383       0.074       0.516       0.527              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        40.1        0.59      0.7310      0.0437      0.0352       0.068       0.474       0.462              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        42.0        0.62      0.7233      0.0377      0.0321       0.062       0.432       0.399              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        43.8        0.64      0.7034      0.0316      0.0289       0.055       0.389       0.334              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        45.6        0.67      0.6657      0.0254      0.0256       0.049       0.344       0.269              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        47.4        0.70      0.5995      0.0191      0.0222       0.043       0.299       0.202              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        49.3        0.72      0.4853      0.0127      0.0189       0.036       0.255       0.134              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        51.1        0.75      0.3010      0.0064      0.0160       0.031       0.216       0.068              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        52.9        0.78     -0.0011      0.0000      0.0132       0.025       0.178       0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1438      0.0664       0.233       1.334       2.270              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3        0.03      0.0586      0.1414      0.0659       0.231       1.325       2.232              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.6        0.05      0.1158      0.1388      0.0655       0.230       1.317       2.191              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6.8        0.08      0.1714      0.1360      0.0651       0.228       1.308       2.147              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.1        0.11      0.2250      0.1329      0.0646       0.227       1.298       2.098              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.4        0.14      0.2766      0.1296      0.0640       0.225       1.287       2.045              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.7        0.16      0.3260      0.1260      0.0634       0.222       1.274       1.989              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.9        0.19      0.3729      0.1221      0.0627       0.220       1.260       1.928              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.2        0.22      0.4172      0.1179      0.0618       0.217       1.243       1.862              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.5        0.25      0.4585      0.1134      0.0609       0.214       1.224       1.791              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.8        0.27      0.4968      0.1089      0.0599       0.210       1.204       1.719              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.1        0.30      0.5328      0.1041      0.0588       0.206       1.181       1.644              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.3        0.33      0.5665      0.0991      0.0574       0.201       1.154       1.565              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        29.6        0.36      0.5978      0.0939      0.0559       0.196       1.123       1.483              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        31.9        0.38      0.6266      0.0886      0.0541       0.190       1.088       1.399              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        34.2        0.41      0.6529      0.0831      0.0522       0.183       1.049       1.312              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        36.5        0.44      0.6769      0.0775      0.0501       0.176       1.006       1.223              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        38.7        0.46      0.6981      0.0719      0.0479       0.168       0.963       1.136              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        41.0        0.49      0.7164      0.0662      0.0455       0.160       0.915       1.046              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        43.3        0.52      0.7303      0.0605      0.0431       0.151       0.866       0.956              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        45.6        0.55      0.7403      0.0546      0.0403       0.141       0.810       0.862              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        47.8        0.57      0.7458      0.0487      0.0375       0.132       0.754       0.769              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        50.1        0.60      0.7458      0.0430      0.0347       0.122       0.697       0.679              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        52.4        0.63      0.7370      0.0371      0.0316       0.111       0.636       0.585              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        54.7        0.66      0.7154      0.0311      0.0285       0.100       0.573       0.491              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        57.0        0.68      0.6738      0.0250      0.0253       0.089       0.510       0.395              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        59.2        0.71      0.5903      0.0185      0.0223       0.078       0.448       0.292              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        61.5        0.74      0.4637      0.0123      0.0196       0.069       0.394       0.194              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        63.8        0.77      0.2967      0.0065      0.0167       0.059       0.336       0.102              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        66.1        0.79      0.0140      0.0002      0.0140       0.049       0.282       0.004              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1445      0.0687       0.313       1.643       2.716              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5        0.03      0.0580      0.1420      0.0678       0.309       1.621       2.669              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.0        0.06      0.1151      0.1393      0.0669       0.305       1.601       2.618              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7.5        0.08      0.1711      0.1364      0.0661       0.301       1.582       2.563              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.1        0.11      0.2255      0.1332      0.0653       0.298       1.563       2.503              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12.6        0.14      0.2781      0.1297      0.0645       0.294       1.543       2.438              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.1        0.17      0.3285      0.1260      0.0637       0.290       1.523       2.368              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17.6        0.19      0.3765      0.1221      0.0628       0.286       1.501       2.293              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.1        0.22      0.4216      0.1177      0.0618       0.281       1.478       2.212              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        22.6        0.25      0.4634      0.1132      0.0608       0.277       1.454       2.126              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.1        0.28      0.5021      0.1085      0.0598       0.272       1.429       2.038              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.7        0.30      0.5385      0.1036      0.0585       0.267       1.400       1.947              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        30.2        0.33      0.5727      0.0985      0.0571       0.260       1.366       1.851              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        32.7        0.36      0.6043      0.0932      0.0555       0.253       1.327       1.751              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        35.2        0.39      0.6335      0.0877      0.0536       0.244       1.283       1.648              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        37.7        0.41      0.6601      0.0821      0.0516       0.235       1.235       1.543              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        40.2        0.44      0.6841      0.0765      0.0495       0.225       1.184       1.438              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        42.7        0.47      0.7055      0.0710      0.0473       0.216       1.132       1.335              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        45.3        0.50      0.7237      0.0654      0.0450       0.205       1.076       1.229              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        47.8        0.53      0.7377      0.0597      0.0425       0.194       1.017       1.121              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        50.3        0.55      0.7480      0.0538      0.0398       0.181       0.953       1.012              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        52.8        0.58      0.7537      0.0481      0.0371       0.169       0.887       0.904              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        55.3        0.61      0.7529      0.0424      0.0342       0.156       0.819       0.796              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        57.8        0.64      0.7428      0.0363      0.0311       0.142       0.745       0.683              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        60.3        0.66      0.7184      0.0303      0.0280       0.128       0.670       0.569              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        62.9        0.69      0.6644      0.0239      0.0249       0.113       0.595       0.449              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        65.4        0.72      0.5931      0.0181      0.0219       0.100       0.525       0.340              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        67.9        0.75      0.4662      0.0123      0.0197       0.090       0.472       0.232              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        70.4        0.77      0.2760      0.0058      0.0163       0.074       0.391       0.109              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        72.9        0.80      0.0221      0.0004      0.0151       0.069       0.361       0.008              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1458      0.0712       0.413       2.000       3.215              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7        0.03      0.0563      0.1433      0.0698       0.404       1.961       3.160              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.4        0.05      0.1125      0.1406      0.0686       0.397       1.926       3.101              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8.1        0.08      0.1679      0.1376      0.0674       0.391       1.894       3.035              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        10.8        0.11      0.2222      0.1344      0.0664       0.384       1.863       2.963              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        13.5        0.14      0.2750      0.1309      0.0653       0.378       1.833       2.886              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16.2        0.16      0.3258      0.1271      0.0642       0.372       1.803       2.803              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.9        0.19      0.3743      0.1231      0.0632       0.366       1.773       2.715              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.6        0.22      0.4199      0.1187      0.0620       0.359       1.742       2.618              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        24.3        0.25      0.4621      0.1141      0.0610       0.353       1.712       2.517              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        27.0        0.27      0.5010      0.1094      0.0599       0.347       1.682       2.413              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        29.7        0.30      0.5374      0.1046      0.0587       0.340       1.649       2.307              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        32.4        0.33      0.5717      0.0996      0.0573       0.332       1.610       2.196              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        35.1        0.36      0.6035      0.0944      0.0558       0.323       1.566       2.082              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        37.8        0.38      0.6330      0.0890      0.0540       0.313       1.517       1.964              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        40.5        0.41      0.6599      0.0836      0.0522       0.302       1.464       1.844              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        43.2        0.44      0.6834      0.0779      0.0500       0.290       1.404       1.717              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        45.9        0.47      0.7064      0.0727      0.0480       0.278       1.347       1.603              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        48.6        0.49      0.7246      0.0670      0.0457       0.264       1.282       1.477              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        51.3        0.52      0.7401      0.0614      0.0432       0.250       1.214       1.353              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        54.0        0.55      0.7509      0.0558      0.0408       0.236       1.144       1.230              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        56.7        0.58      0.7592      0.0499      0.0379       0.219       1.063       1.100              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        59.4        0.60      0.7606      0.0442      0.0351       0.203       0.984       0.974              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        62.1        0.63      0.7529      0.0382      0.0320       0.185       0.898       0.842              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        64.8        0.66      0.7330      0.0323      0.0290       0.168       0.814       0.712              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        67.5        0.69      0.6939      0.0255      0.0252       0.146       0.708       0.563              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        70.2        0.71      0.6235      0.0192      0.0220       0.127       0.617       0.424              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        72.9        0.74      0.5011      0.0139      0.0205       0.119       0.577       0.307              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        75.6        0.77      0.3424      0.0078      0.0175       0.101       0.492       0.172              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        78.3        0.80      0.0005      0.0000      0.0126       0.073       0.354       0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1467      0.0737       0.533       2.399       3.751              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.9        0.03      0.0557      0.1440      0.0718       0.519       2.337       3.684              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.9        0.06      0.1118      0.1412      0.0701       0.507       2.281       3.611              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8.8        0.08      0.1677      0.1381      0.0685       0.496       2.232       3.532              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        11.8        0.11      0.2227      0.1347      0.0671       0.486       2.186       3.446              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        14.7        0.14      0.2764      0.1311      0.0658       0.476       2.143       3.353              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        17.7        0.17      0.3282      0.1272      0.0645       0.467       2.101       3.254              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        20.6        0.19      0.3776      0.1230      0.0633       0.458       2.061       3.147              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        23.5        0.22      0.4240      0.1185      0.0620       0.449       2.020       3.031              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        26.5        0.25      0.4666      0.1138      0.0609       0.441       1.983       2.910              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        29.4        0.28      0.5058      0.1091      0.0598       0.433       1.948       2.789              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        32.4        0.31      0.5425      0.1042      0.0586       0.424       1.909       2.665              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        35.3        0.33      0.5769      0.0992      0.0572       0.414       1.864       2.537              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        38.3        0.36      0.6090      0.0939      0.0556       0.402       1.812       2.403              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        41.2        0.39      0.6387      0.0885      0.0538       0.389       1.753       2.264              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        44.1        0.42      0.6658      0.0831      0.0519       0.375       1.690       2.124              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        47.1        0.44      0.6905      0.0775      0.0498       0.360       1.623       1.982              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        50.0        0.47      0.7127      0.0720      0.0477       0.345       1.552       1.842              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        53.0        0.50      0.7320      0.0665      0.0454       0.328       1.477       1.700              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        55.9        0.53      0.7475      0.0608      0.0429       0.310       1.396       1.555              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        58.9        0.55      0.7590      0.0551      0.0403       0.292       1.313       1.410              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        61.8        0.58      0.7661      0.0494      0.0376       0.272       1.223       1.263              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        64.7        0.61      0.7665      0.0435      0.0346       0.251       1.128       1.112              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        67.7        0.64      0.7539      0.0371      0.0314       0.227       1.022       0.948              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        70.6        0.67      0.7231      0.0312      0.0287       0.208       0.935       0.798              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        73.6        0.69      0.6862      0.0250      0.0252       0.183       0.822       0.638              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        76.5        0.72      0.5654      0.0181      0.0230       0.167       0.750       0.462              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        79.4        0.75      0.4824      0.0126      0.0196       0.142       0.638       0.323              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        82.4        0.78      0.2783      0.0055      0.0155       0.112       0.504       0.142              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        85.3        0.80      0.0150      0.0003      0.0139       0.101       0.454       0.007              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0        0.00      0.0000      0.1476      0.0763       0.678       2.850       4.334              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1        0.03      0.0541      0.1450      0.0738       0.657       2.759       4.256              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         6.3        0.06      0.1092      0.1421      0.0717       0.638       2.680       4.171              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         9.4        0.08      0.1644      0.1390      0.0699       0.621       2.611       4.080              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12.5        0.11      0.2192      0.1356      0.0682       0.606       2.548       3.981              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        15.7        0.14      0.2728      0.1319      0.0666       0.592       2.489       3.872              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        18.8        0.17      0.3248      0.1280      0.0651       0.580       2.435       3.758              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        21.9        0.19      0.3745      0.1238      0.0638       0.567       2.383       3.635              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.0        0.22      0.4211      0.1193      0.0624       0.555       2.333       3.502              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        28.2        0.25      0.4639      0.1146      0.0612       0.545       2.288       3.364              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        31.3        0.28      0.5031      0.1099      0.0602       0.535       2.248       3.225              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        34.4        0.30      0.5399      0.1051      0.0590       0.525       2.204       3.084              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        37.6        0.33      0.5745      0.1000      0.0576       0.512       2.152       2.937              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        40.7        0.36      0.6066      0.0950      0.0561       0.499       2.096       2.788              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        43.8        0.39      0.6365      0.0897      0.0543       0.483       2.030       2.632              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        47.0        0.41      0.6642      0.0842      0.0524       0.466       1.958       2.473              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        50.1        0.44      0.6893      0.0788      0.0504       0.448       1.884       2.314              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        53.2        0.47      0.7119      0.0735      0.0483       0.430       1.806       2.156              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        56.3        0.50      0.7320      0.0679      0.0460       0.409       1.719       1.993              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        59.5        0.52      0.7486      0.0623      0.0435       0.387       1.628       1.829              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        62.6        0.55      0.7608      0.0569      0.0412       0.366       1.539       1.669              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        65.7        0.58      0.7698      0.0509      0.0382       0.340       1.429       1.494              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        68.9        0.61      0.7722      0.0450      0.0353       0.314       1.321       1.322              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        72.0        0.63      0.7570      0.0394      0.0330       0.293       1.233       1.157              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        75.1        0.66      0.7367      0.0320      0.0287       0.255       1.073       0.939              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        78.3        0.69      0.7027      0.0253      0.0248       0.221       0.927       0.743              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        81.4        0.72      0.6186      0.0199      0.0230       0.205       0.860       0.583              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        84.5        0.74      0.4975      0.0119      0.0178       0.159       0.667       0.351              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        87.6        0.77      0.2935      0.0055      0.0146       0.130       0.545       0.163              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        90.8        0.80     -0.0566     -0.0010      0.0136       0.121       0.510      -0.028              </t>
   </si>
 </sst>
 </file>
@@ -4144,13 +4968,20 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4217,36 +5048,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5721,11 +6555,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252148352"/>
-        <c:axId val="252973440"/>
+        <c:axId val="480749440"/>
+        <c:axId val="480750976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252148352"/>
+        <c:axId val="480749440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5763,12 +6597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252973440"/>
+        <c:crossAx val="480750976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252973440"/>
+        <c:axId val="480750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5816,7 +6650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252148352"/>
+        <c:crossAx val="480749440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6149,11 +6983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257925504"/>
-        <c:axId val="257928192"/>
+        <c:axId val="483819904"/>
+        <c:axId val="483821440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257925504"/>
+        <c:axId val="483819904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6191,12 +7025,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257928192"/>
+        <c:crossAx val="483821440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257928192"/>
+        <c:axId val="483821440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6244,7 +7078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257925504"/>
+        <c:crossAx val="483819904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6539,11 +7373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262476928"/>
-        <c:axId val="262479232"/>
+        <c:axId val="483830400"/>
+        <c:axId val="483836288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262476928"/>
+        <c:axId val="483830400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6581,12 +7415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262479232"/>
+        <c:crossAx val="483836288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262479232"/>
+        <c:axId val="483836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6634,7 +7468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262476928"/>
+        <c:crossAx val="483830400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7839,11 +8673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283420928"/>
-        <c:axId val="424038784"/>
+        <c:axId val="483862016"/>
+        <c:axId val="483863552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283420928"/>
+        <c:axId val="483862016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7881,12 +8715,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424038784"/>
+        <c:crossAx val="483863552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="424038784"/>
+        <c:axId val="483863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7934,7 +8768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283420928"/>
+        <c:crossAx val="483862016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8133,11 +8967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517884928"/>
-        <c:axId val="116384512"/>
+        <c:axId val="508175872"/>
+        <c:axId val="508177408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517884928"/>
+        <c:axId val="508175872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8147,12 +8981,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116384512"/>
+        <c:crossAx val="508177408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116384512"/>
+        <c:axId val="508177408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8163,14 +8997,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517884928"/>
+        <c:crossAx val="508175872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8205,7 +9038,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8286,7 +9119,7 @@
         <xdr:cNvPr id="3" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8341,7 +9174,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +9257,7 @@
         <xdr:cNvPr id="5" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8479,7 +9312,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8567,7 +9400,7 @@
         <xdr:cNvPr id="5" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8603,7 +9436,7 @@
         <xdr:cNvPr id="6" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +9472,7 @@
         <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8675,7 +9508,7 @@
         <xdr:cNvPr id="8" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8716,7 +9549,7 @@
         <xdr:cNvPr id="9" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8770,7 +9603,7 @@
         <xdr:cNvPr id="10" name="Freeform 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8844,7 +9677,7 @@
         <xdr:cNvPr id="11" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8898,7 +9731,7 @@
         <xdr:cNvPr id="12" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8952,7 +9785,7 @@
         <xdr:cNvPr id="13" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9006,7 +9839,7 @@
         <xdr:cNvPr id="14" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9893,7 @@
         <xdr:cNvPr id="15" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9114,7 +9947,7 @@
         <xdr:cNvPr id="16" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9168,7 +10001,7 @@
         <xdr:cNvPr id="17" name="TextShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9228,7 +10061,7 @@
         <xdr:cNvPr id="18" name="TextShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9288,7 +10121,7 @@
         <xdr:cNvPr id="19" name="TextShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9348,7 +10181,7 @@
         <xdr:cNvPr id="20" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9401,7 +10234,7 @@
         <xdr:cNvPr id="21" name="TextShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9461,7 +10294,7 @@
         <xdr:cNvPr id="22" name="TextShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9521,7 +10354,7 @@
         <xdr:cNvPr id="2" name=" 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9549,7 +10382,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9593,7 +10426,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9637,7 +10470,7 @@
         <xdr:cNvPr id="24" name="Straight Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9687,7 +10520,7 @@
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9737,7 +10570,7 @@
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9787,7 +10620,7 @@
         <xdr:cNvPr id="30" name="Straight Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9837,7 +10670,7 @@
         <xdr:cNvPr id="33" name="Straight Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9887,7 +10720,7 @@
         <xdr:cNvPr id="35" name="Straight Connector 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9937,7 +10770,7 @@
         <xdr:cNvPr id="38" name="Straight Connector 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9987,7 +10820,7 @@
         <xdr:cNvPr id="40" name="Straight Connector 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10037,7 +10870,7 @@
         <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10107,7 +10940,7 @@
         <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10177,7 +11010,7 @@
         <xdr:cNvPr id="43" name="Chart 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10218,7 +11051,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23690DE-CEB9-4571-98E5-BBD5BB3D9019}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23690DE-CEB9-4571-98E5-BBD5BB3D9019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10834,8 +11667,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O791"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="M294" sqref="M294"/>
+    <sheetView topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="M806" sqref="M806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16102,8 +16935,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16631,6 +17464,6142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O457"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N127" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O127" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="17">
+        <v>0</v>
+      </c>
+      <c r="C129" s="17">
+        <v>0</v>
+      </c>
+      <c r="D129" s="17">
+        <v>0</v>
+      </c>
+      <c r="E129" s="17">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="F129" s="17">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="G129" s="17">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H129" s="17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I129" s="17">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K129" s="13">
+        <f>1.60934*B129</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="12">
+        <f>K129/3.6</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="12">
+        <f>4.44822*I129</f>
+        <v>4.0345355400000003</v>
+      </c>
+      <c r="N129" s="13">
+        <f>4.44822*H129*25.4</f>
+        <v>58.413135396000001</v>
+      </c>
+      <c r="O129" s="13">
+        <f>0.7457*G129*1000</f>
+        <v>42.504900000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C130" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="D130" s="17">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="E130" s="17">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F130" s="17">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="G130" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I130" s="17">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="K130" s="13">
+        <f>1.60934*B130</f>
+        <v>2.2530759999999996</v>
+      </c>
+      <c r="L130" s="12">
+        <f t="shared" ref="L130:L158" si="0">K130/3.6</f>
+        <v>0.62585444444444438</v>
+      </c>
+      <c r="M130" s="12">
+        <f t="shared" ref="M130:M158" si="1">4.44822*I130</f>
+        <v>3.9722604600000002</v>
+      </c>
+      <c r="N130" s="13">
+        <f t="shared" ref="N130:N158" si="2">4.44822*H130*25.4</f>
+        <v>58.639104971999998</v>
+      </c>
+      <c r="O130" s="13">
+        <f t="shared" ref="O130:O158" si="3">0.7457*G130*1000</f>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="C131" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D131" s="17">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="E131" s="17">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="F131" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G131" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H131" s="17">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I131" s="17">
+        <v>0.878</v>
+      </c>
+      <c r="K131" s="13">
+        <f t="shared" ref="K131:K158" si="4">1.60934*B131</f>
+        <v>4.5061519999999993</v>
+      </c>
+      <c r="L131" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2517088888888888</v>
+      </c>
+      <c r="M131" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9055371600000002</v>
+      </c>
+      <c r="N131" s="13">
+        <f t="shared" si="2"/>
+        <v>58.865074547999996</v>
+      </c>
+      <c r="O131" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="C132" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D132" s="17">
+        <v>0.1648</v>
+      </c>
+      <c r="E132" s="17">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="F132" s="17">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="G132" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H132" s="17">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="I132" s="17">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="K132" s="13">
+        <f t="shared" si="4"/>
+        <v>6.7592280000000002</v>
+      </c>
+      <c r="L132" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8775633333333333</v>
+      </c>
+      <c r="M132" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8388138600000001</v>
+      </c>
+      <c r="N132" s="13">
+        <f t="shared" si="2"/>
+        <v>58.978059336000001</v>
+      </c>
+      <c r="O132" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D133" s="17">
+        <v>0.2152</v>
+      </c>
+      <c r="E133" s="17">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="F133" s="17">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G133" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H133" s="17">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I133" s="17">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K133" s="13">
+        <f t="shared" si="4"/>
+        <v>8.8513699999999993</v>
+      </c>
+      <c r="L133" s="12">
+        <f t="shared" si="0"/>
+        <v>2.4587138888888886</v>
+      </c>
+      <c r="M133" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7587459000000001</v>
+      </c>
+      <c r="N133" s="13">
+        <f t="shared" si="2"/>
+        <v>59.091044124</v>
+      </c>
+      <c r="O133" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="C134" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="D134" s="17">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="E134" s="17">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="F134" s="17">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G134" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H134" s="17">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I134" s="17">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K134" s="13">
+        <f t="shared" si="4"/>
+        <v>11.104446000000001</v>
+      </c>
+      <c r="L134" s="12">
+        <f t="shared" si="0"/>
+        <v>3.0845683333333334</v>
+      </c>
+      <c r="M134" s="12">
+        <f t="shared" si="1"/>
+        <v>3.67867794</v>
+      </c>
+      <c r="N134" s="13">
+        <f t="shared" si="2"/>
+        <v>59.091044124</v>
+      </c>
+      <c r="O134" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C135" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="D135" s="17">
+        <v>0.30880000000000002</v>
+      </c>
+      <c r="E135" s="17">
+        <v>0.1263</v>
+      </c>
+      <c r="F135" s="17">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="G135" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H135" s="17">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="I135" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K135" s="13">
+        <f t="shared" si="4"/>
+        <v>13.357522000000001</v>
+      </c>
+      <c r="L135" s="12">
+        <f t="shared" si="0"/>
+        <v>3.7104227777777781</v>
+      </c>
+      <c r="M135" s="12">
+        <f t="shared" si="1"/>
+        <v>3.5897135400000004</v>
+      </c>
+      <c r="N135" s="13">
+        <f t="shared" si="2"/>
+        <v>58.978059336000001</v>
+      </c>
+      <c r="O135" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="17">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C136" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="D136" s="17">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E136" s="17">
+        <v>0.123</v>
+      </c>
+      <c r="F136" s="17">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="G136" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H136" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="I136" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="K136" s="13">
+        <f t="shared" si="4"/>
+        <v>15.610598</v>
+      </c>
+      <c r="L136" s="12">
+        <f t="shared" si="0"/>
+        <v>4.3362772222222219</v>
+      </c>
+      <c r="M136" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4963009200000004</v>
+      </c>
+      <c r="N136" s="13">
+        <f t="shared" si="2"/>
+        <v>58.752089759999997</v>
+      </c>
+      <c r="O136" s="13">
+        <f t="shared" si="3"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="17">
+        <v>11.1</v>
+      </c>
+      <c r="C137" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="D137" s="17">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="E137" s="17">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="F137" s="17">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="G137" s="17">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H137" s="17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I137" s="17">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K137" s="13">
+        <f t="shared" si="4"/>
+        <v>17.863674</v>
+      </c>
+      <c r="L137" s="12">
+        <f t="shared" si="0"/>
+        <v>4.9621316666666662</v>
+      </c>
+      <c r="M137" s="12">
+        <f t="shared" si="1"/>
+        <v>3.3939918600000003</v>
+      </c>
+      <c r="N137" s="13">
+        <f t="shared" si="2"/>
+        <v>58.413135396000001</v>
+      </c>
+      <c r="O137" s="13">
+        <f t="shared" si="3"/>
+        <v>42.504900000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="C138" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="D138" s="17">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="E138" s="17">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="F138" s="17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G138" s="17">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H138" s="17">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="I138" s="17">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K138" s="13">
+        <f t="shared" si="4"/>
+        <v>20.11675</v>
+      </c>
+      <c r="L138" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5879861111111113</v>
+      </c>
+      <c r="M138" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2827863599999998</v>
+      </c>
+      <c r="N138" s="13">
+        <f t="shared" si="2"/>
+        <v>57.961196244</v>
+      </c>
+      <c r="O138" s="13">
+        <f t="shared" si="3"/>
+        <v>42.504900000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="17">
+        <v>13.9</v>
+      </c>
+      <c r="C139" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="D139" s="17">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="E139" s="17">
+        <v>0.1113</v>
+      </c>
+      <c r="F139" s="17">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="G139" s="17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H139" s="17">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I139" s="17">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K139" s="13">
+        <f t="shared" si="4"/>
+        <v>22.369826</v>
+      </c>
+      <c r="L139" s="12">
+        <f t="shared" si="0"/>
+        <v>6.2138405555555556</v>
+      </c>
+      <c r="M139" s="12">
+        <f t="shared" si="1"/>
+        <v>3.1671326399999997</v>
+      </c>
+      <c r="N139" s="13">
+        <f t="shared" si="2"/>
+        <v>57.283287516000001</v>
+      </c>
+      <c r="O139" s="13">
+        <f t="shared" si="3"/>
+        <v>41.7592</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="17">
+        <v>15.2</v>
+      </c>
+      <c r="C140" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D140" s="17">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E140" s="17">
+        <v>0.107</v>
+      </c>
+      <c r="F140" s="17">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="G140" s="17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H140" s="17">
+        <v>0.501</v>
+      </c>
+      <c r="I140" s="17">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K140" s="13">
+        <f t="shared" si="4"/>
+        <v>24.461967999999999</v>
+      </c>
+      <c r="L140" s="12">
+        <f t="shared" si="0"/>
+        <v>6.794991111111111</v>
+      </c>
+      <c r="M140" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0425824800000001</v>
+      </c>
+      <c r="N140" s="13">
+        <f t="shared" si="2"/>
+        <v>56.605378787999996</v>
+      </c>
+      <c r="O140" s="13">
+        <f t="shared" si="3"/>
+        <v>41.7592</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="17">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C141" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="D141" s="17">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E141" s="17">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="F141" s="17">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="G141" s="17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H141" s="17">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I141" s="17">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K141" s="13">
+        <f t="shared" si="4"/>
+        <v>26.715044000000002</v>
+      </c>
+      <c r="L141" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4208455555555561</v>
+      </c>
+      <c r="M141" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9135841</v>
+      </c>
+      <c r="N141" s="13">
+        <f t="shared" si="2"/>
+        <v>55.701500484</v>
+      </c>
+      <c r="O141" s="13">
+        <f t="shared" si="3"/>
+        <v>41.013500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="17">
+        <v>18</v>
+      </c>
+      <c r="C142" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="D142" s="17">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="E142" s="17">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="F142" s="17">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="G142" s="17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H142" s="17">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I142" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="K142" s="13">
+        <f t="shared" si="4"/>
+        <v>28.968119999999999</v>
+      </c>
+      <c r="L142" s="12">
+        <f t="shared" si="0"/>
+        <v>8.0466999999999995</v>
+      </c>
+      <c r="M142" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7801374999999999</v>
+      </c>
+      <c r="N142" s="13">
+        <f t="shared" si="2"/>
+        <v>54.571652603999993</v>
+      </c>
+      <c r="O142" s="13">
+        <f t="shared" si="3"/>
+        <v>40.267800000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="17">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C143" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="D143" s="17">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="E143" s="17">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="F143" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G143" s="17">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H143" s="17">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I143" s="17">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="K143" s="13">
+        <f t="shared" si="4"/>
+        <v>31.221195999999999</v>
+      </c>
+      <c r="L143" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6725544444444438</v>
+      </c>
+      <c r="M143" s="12">
+        <f t="shared" si="1"/>
+        <v>2.6422426799999998</v>
+      </c>
+      <c r="N143" s="13">
+        <f t="shared" si="2"/>
+        <v>53.328819935999995</v>
+      </c>
+      <c r="O143" s="13">
+        <f t="shared" si="3"/>
+        <v>38.776400000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="17">
+        <v>20.8</v>
+      </c>
+      <c r="C144" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="D144" s="17">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="E144" s="17">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="F144" s="17">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G144" s="17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H144" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="I144" s="17">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="K144" s="13">
+        <f t="shared" si="4"/>
+        <v>33.474271999999999</v>
+      </c>
+      <c r="L144" s="12">
+        <f t="shared" si="0"/>
+        <v>9.2984088888888881</v>
+      </c>
+      <c r="M144" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4998996400000002</v>
+      </c>
+      <c r="N144" s="13">
+        <f t="shared" si="2"/>
+        <v>51.973002479999998</v>
+      </c>
+      <c r="O144" s="13">
+        <f t="shared" si="3"/>
+        <v>38.030700000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="17">
+        <v>22.2</v>
+      </c>
+      <c r="C145" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="D145" s="17">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="E145" s="17">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F145" s="17">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G145" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H145" s="17">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="I145" s="17">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="K145" s="13">
+        <f t="shared" si="4"/>
+        <v>35.727347999999999</v>
+      </c>
+      <c r="L145" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9242633333333323</v>
+      </c>
+      <c r="M145" s="12">
+        <f t="shared" si="1"/>
+        <v>2.3531083800000001</v>
+      </c>
+      <c r="N145" s="13">
+        <f t="shared" si="2"/>
+        <v>50.504200236000003</v>
+      </c>
+      <c r="O145" s="13">
+        <f t="shared" si="3"/>
+        <v>37.285000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="17">
+        <v>23.5</v>
+      </c>
+      <c r="C146" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="D146" s="17">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="E146" s="17">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="F146" s="17">
+        <v>5.28E-2</v>
+      </c>
+      <c r="G146" s="17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H146" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="I146" s="17">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="K146" s="13">
+        <f t="shared" si="4"/>
+        <v>37.819490000000002</v>
+      </c>
+      <c r="L146" s="12">
+        <f t="shared" si="0"/>
+        <v>10.505413888888889</v>
+      </c>
+      <c r="M146" s="12">
+        <f t="shared" si="1"/>
+        <v>2.19742068</v>
+      </c>
+      <c r="N146" s="13">
+        <f t="shared" si="2"/>
+        <v>48.583458839999999</v>
+      </c>
+      <c r="O146" s="13">
+        <f t="shared" si="3"/>
+        <v>35.793600000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="17">
+        <v>24.9</v>
+      </c>
+      <c r="C147" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="D147" s="17">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E147" s="17">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="F147" s="17">
+        <v>5.04E-2</v>
+      </c>
+      <c r="G147" s="17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H147" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="I147" s="17">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="K147" s="13">
+        <f t="shared" si="4"/>
+        <v>40.072565999999995</v>
+      </c>
+      <c r="L147" s="12">
+        <f t="shared" si="0"/>
+        <v>11.131268333333331</v>
+      </c>
+      <c r="M147" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0328365399999999</v>
+      </c>
+      <c r="N147" s="13">
+        <f t="shared" si="2"/>
+        <v>46.323763079999999</v>
+      </c>
+      <c r="O147" s="13">
+        <f t="shared" si="3"/>
+        <v>34.302199999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="17">
+        <v>26.3</v>
+      </c>
+      <c r="C148" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D148" s="17">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="E148" s="17">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="F148" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="G148" s="17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H148" s="17">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I148" s="17">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="K148" s="13">
+        <f t="shared" si="4"/>
+        <v>42.325642000000002</v>
+      </c>
+      <c r="L148" s="12">
+        <f t="shared" si="0"/>
+        <v>11.757122777777779</v>
+      </c>
+      <c r="M148" s="12">
+        <f t="shared" si="1"/>
+        <v>1.86380418</v>
+      </c>
+      <c r="N148" s="13">
+        <f t="shared" si="2"/>
+        <v>43.838097744000002</v>
+      </c>
+      <c r="O148" s="13">
+        <f t="shared" si="3"/>
+        <v>32.065100000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="17">
+        <v>27.7</v>
+      </c>
+      <c r="C149" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="D149" s="17">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="E149" s="17">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F149" s="17">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G149" s="17">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H149" s="17">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I149" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="K149" s="13">
+        <f t="shared" si="4"/>
+        <v>44.578718000000002</v>
+      </c>
+      <c r="L149" s="12">
+        <f t="shared" si="0"/>
+        <v>12.382977222222223</v>
+      </c>
+      <c r="M149" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6903236000000001</v>
+      </c>
+      <c r="N149" s="13">
+        <f t="shared" si="2"/>
+        <v>41.239447619999993</v>
+      </c>
+      <c r="O149" s="13">
+        <f t="shared" si="3"/>
+        <v>30.573700000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="17">
+        <v>29.1</v>
+      </c>
+      <c r="C150" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D150" s="17">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="E150" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="F150" s="17">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G150" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H150" s="17">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I150" s="17">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K150" s="13">
+        <f t="shared" si="4"/>
+        <v>46.831794000000002</v>
+      </c>
+      <c r="L150" s="12">
+        <f t="shared" si="0"/>
+        <v>13.008831666666667</v>
+      </c>
+      <c r="M150" s="12">
+        <f t="shared" si="1"/>
+        <v>1.50794658</v>
+      </c>
+      <c r="N150" s="13">
+        <f t="shared" si="2"/>
+        <v>38.301843132000002</v>
+      </c>
+      <c r="O150" s="13">
+        <f t="shared" si="3"/>
+        <v>28.336600000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="17">
+        <v>30.5</v>
+      </c>
+      <c r="C151" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D151" s="17">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="E151" s="17">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="F151" s="17">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="G151" s="17">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H151" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="I151" s="17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="K151" s="13">
+        <f t="shared" si="4"/>
+        <v>49.084870000000002</v>
+      </c>
+      <c r="L151" s="12">
+        <f t="shared" si="0"/>
+        <v>13.634686111111112</v>
+      </c>
+      <c r="M151" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3255695599999999</v>
+      </c>
+      <c r="N151" s="13">
+        <f t="shared" si="2"/>
+        <v>35.025284279999994</v>
+      </c>
+      <c r="O151" s="13">
+        <f t="shared" si="3"/>
+        <v>25.353800000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="17">
+        <v>31.9</v>
+      </c>
+      <c r="C152" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="D152" s="17">
+        <v>0.6986</v>
+      </c>
+      <c r="E152" s="17">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="F152" s="17">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G152" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K152" s="13">
+        <f t="shared" si="4"/>
+        <v>51.337945999999995</v>
+      </c>
+      <c r="L152" s="12">
+        <f t="shared" si="0"/>
+        <v>14.260540555555554</v>
+      </c>
+      <c r="M152" s="12">
+        <f t="shared" si="1"/>
+        <v>1.13874432</v>
+      </c>
+      <c r="N152" s="13">
+        <f t="shared" si="2"/>
+        <v>31.748725428</v>
+      </c>
+      <c r="O152" s="13">
+        <f t="shared" si="3"/>
+        <v>23.116700000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="17">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C153" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="D153" s="17">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="E153" s="17">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F153" s="17">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="G153" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H153" s="17">
+        <v>0.251</v>
+      </c>
+      <c r="I153" s="17">
+        <v>0.215</v>
+      </c>
+      <c r="K153" s="13">
+        <f t="shared" si="4"/>
+        <v>53.430088000000005</v>
+      </c>
+      <c r="L153" s="12">
+        <f t="shared" si="0"/>
+        <v>14.841691111111112</v>
+      </c>
+      <c r="M153" s="12">
+        <f t="shared" si="1"/>
+        <v>0.95636730000000003</v>
+      </c>
+      <c r="N153" s="13">
+        <f t="shared" si="2"/>
+        <v>28.359181787999997</v>
+      </c>
+      <c r="O153" s="13">
+        <f t="shared" si="3"/>
+        <v>20.8796</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="17">
+        <v>34.6</v>
+      </c>
+      <c r="C154" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="D154" s="17">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="E154" s="17">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F154" s="17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G154" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H154" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="I154" s="17">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K154" s="13">
+        <f t="shared" si="4"/>
+        <v>55.683164000000005</v>
+      </c>
+      <c r="L154" s="12">
+        <f t="shared" si="0"/>
+        <v>15.467545555555557</v>
+      </c>
+      <c r="M154" s="12">
+        <f t="shared" si="1"/>
+        <v>0.76954205999999992</v>
+      </c>
+      <c r="N154" s="13">
+        <f t="shared" si="2"/>
+        <v>24.856653359999999</v>
+      </c>
+      <c r="O154" s="13">
+        <f t="shared" si="3"/>
+        <v>17.896800000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="17">
+        <v>36</v>
+      </c>
+      <c r="C155" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="D155" s="17">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E155" s="17">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="F155" s="17">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="G155" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H155" s="17">
+        <v>0.188</v>
+      </c>
+      <c r="I155" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="K155" s="13">
+        <f t="shared" si="4"/>
+        <v>57.936239999999998</v>
+      </c>
+      <c r="L155" s="12">
+        <f t="shared" si="0"/>
+        <v>16.093399999999999</v>
+      </c>
+      <c r="M155" s="12">
+        <f t="shared" si="1"/>
+        <v>0.57826860000000002</v>
+      </c>
+      <c r="N155" s="13">
+        <f t="shared" si="2"/>
+        <v>21.241140143999999</v>
+      </c>
+      <c r="O155" s="13">
+        <f t="shared" si="3"/>
+        <v>15.659700000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="17">
+        <v>37.4</v>
+      </c>
+      <c r="C156" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="D156" s="17">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="E156" s="17">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="F156" s="17">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G156" s="17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H156" s="17">
+        <v>0.156</v>
+      </c>
+      <c r="I156" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K156" s="13">
+        <f t="shared" si="4"/>
+        <v>60.189315999999998</v>
+      </c>
+      <c r="L156" s="12">
+        <f t="shared" si="0"/>
+        <v>16.719254444444445</v>
+      </c>
+      <c r="M156" s="12">
+        <f t="shared" si="1"/>
+        <v>0.38699513999999996</v>
+      </c>
+      <c r="N156" s="13">
+        <f t="shared" si="2"/>
+        <v>17.625626927999999</v>
+      </c>
+      <c r="O156" s="13">
+        <f t="shared" si="3"/>
+        <v>12.676900000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C157" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="D157" s="17">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="E157" s="17">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F157" s="17">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="G157" s="17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H157" s="17">
+        <v>0.127</v>
+      </c>
+      <c r="I157" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K157" s="13">
+        <f t="shared" si="4"/>
+        <v>62.442391999999998</v>
+      </c>
+      <c r="L157" s="12">
+        <f t="shared" si="0"/>
+        <v>17.345108888888888</v>
+      </c>
+      <c r="M157" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19572167999999998</v>
+      </c>
+      <c r="N157" s="13">
+        <f t="shared" si="2"/>
+        <v>14.349068076</v>
+      </c>
+      <c r="O157" s="13">
+        <f t="shared" si="3"/>
+        <v>10.4398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="17">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C158" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="D158" s="17">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E158" s="17">
+        <v>0</v>
+      </c>
+      <c r="F158" s="17">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G158" s="17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H158" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I158" s="17">
+        <v>0</v>
+      </c>
+      <c r="K158" s="13">
+        <f t="shared" si="4"/>
+        <v>64.695468000000005</v>
+      </c>
+      <c r="L158" s="12">
+        <f t="shared" si="0"/>
+        <v>17.970963333333334</v>
+      </c>
+      <c r="M158" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="13">
+        <f t="shared" si="2"/>
+        <v>11.2984788</v>
+      </c>
+      <c r="O158" s="13">
+        <f t="shared" si="3"/>
+        <v>8.2027000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L164" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M164" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N164" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O164" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B166" s="17">
+        <v>0</v>
+      </c>
+      <c r="C166" s="17">
+        <v>0</v>
+      </c>
+      <c r="D166" s="17">
+        <v>0</v>
+      </c>
+      <c r="E166" s="17">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="F166" s="17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G166" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H166" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="I166" s="17">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="K166" s="13">
+        <f>1.60934*B166</f>
+        <v>0</v>
+      </c>
+      <c r="L166" s="12">
+        <f>K166/3.6</f>
+        <v>0</v>
+      </c>
+      <c r="M166" s="12">
+        <f>4.44822*I166</f>
+        <v>5.2800371400000001</v>
+      </c>
+      <c r="N166" s="13">
+        <f>4.44822*H166*25.4</f>
+        <v>75.699807960000001</v>
+      </c>
+      <c r="O166" s="13">
+        <f>0.7457*G166*1000</f>
+        <v>63.38450000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B167" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="C167" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="D167" s="17">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E167" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F167" s="17">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="G167" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H167" s="17">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I167" s="17">
+        <v>1.169</v>
+      </c>
+      <c r="K167" s="13">
+        <f>1.60934*B167</f>
+        <v>2.5749440000000003</v>
+      </c>
+      <c r="L167" s="12">
+        <f t="shared" ref="L167:L195" si="5">K167/3.6</f>
+        <v>0.71526222222222235</v>
+      </c>
+      <c r="M167" s="12">
+        <f t="shared" ref="M167:M195" si="6">4.44822*I167</f>
+        <v>5.1999691800000001</v>
+      </c>
+      <c r="N167" s="13">
+        <f t="shared" ref="N167:N195" si="7">4.44822*H167*25.4</f>
+        <v>76.038762324000004</v>
+      </c>
+      <c r="O167" s="13">
+        <f t="shared" ref="O167:O195" si="8">0.7457*G167*1000</f>
+        <v>63.38450000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B168" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="C168" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D168" s="17">
+        <v>0.1147</v>
+      </c>
+      <c r="E168" s="17">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="F168" s="17">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="G168" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H168" s="17">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I168" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K168" s="13">
+        <f t="shared" ref="K168:K195" si="9">1.60934*B168</f>
+        <v>5.1498880000000007</v>
+      </c>
+      <c r="L168" s="12">
+        <f t="shared" si="5"/>
+        <v>1.4305244444444447</v>
+      </c>
+      <c r="M168" s="12">
+        <f t="shared" si="6"/>
+        <v>5.1154529999999996</v>
+      </c>
+      <c r="N168" s="13">
+        <f t="shared" si="7"/>
+        <v>76.264731900000001</v>
+      </c>
+      <c r="O168" s="13">
+        <f t="shared" si="8"/>
+        <v>64.130200000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B169" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="C169" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D169" s="17">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="E169" s="17">
+        <v>0.1351</v>
+      </c>
+      <c r="F169" s="17">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G169" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H169" s="17">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I169" s="17">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="K169" s="13">
+        <f t="shared" si="9"/>
+        <v>7.7248319999999993</v>
+      </c>
+      <c r="L169" s="12">
+        <f t="shared" si="5"/>
+        <v>2.1457866666666665</v>
+      </c>
+      <c r="M169" s="12">
+        <f t="shared" si="6"/>
+        <v>5.0175921599999995</v>
+      </c>
+      <c r="N169" s="13">
+        <f t="shared" si="7"/>
+        <v>76.490701475999998</v>
+      </c>
+      <c r="O169" s="13">
+        <f t="shared" si="8"/>
+        <v>64.130200000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B170" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="C170" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="D170" s="17">
+        <v>0.2198</v>
+      </c>
+      <c r="E170" s="17">
+        <v>0.1323</v>
+      </c>
+      <c r="F170" s="17">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G170" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H170" s="17">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I170" s="17">
+        <v>1.105</v>
+      </c>
+      <c r="K170" s="13">
+        <f t="shared" si="9"/>
+        <v>10.299776000000001</v>
+      </c>
+      <c r="L170" s="12">
+        <f t="shared" si="5"/>
+        <v>2.8610488888888894</v>
+      </c>
+      <c r="M170" s="12">
+        <f t="shared" si="6"/>
+        <v>4.9152830999999999</v>
+      </c>
+      <c r="N170" s="13">
+        <f t="shared" si="7"/>
+        <v>76.490701475999998</v>
+      </c>
+      <c r="O170" s="13">
+        <f t="shared" si="8"/>
+        <v>64.130200000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B171" s="17">
+        <v>8</v>
+      </c>
+      <c r="C171" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="D171" s="17">
+        <v>0.26879999999999998</v>
+      </c>
+      <c r="E171" s="17">
+        <v>0.1293</v>
+      </c>
+      <c r="F171" s="17">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G171" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H171" s="17">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I171" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="K171" s="13">
+        <f t="shared" si="9"/>
+        <v>12.87472</v>
+      </c>
+      <c r="L171" s="12">
+        <f t="shared" si="5"/>
+        <v>3.576311111111111</v>
+      </c>
+      <c r="M171" s="12">
+        <f t="shared" si="6"/>
+        <v>4.8040776000000003</v>
+      </c>
+      <c r="N171" s="13">
+        <f t="shared" si="7"/>
+        <v>76.490701475999998</v>
+      </c>
+      <c r="O171" s="13">
+        <f t="shared" si="8"/>
+        <v>64.130200000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B172" s="17">
+        <v>9.6</v>
+      </c>
+      <c r="C172" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="D172" s="17">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="E172" s="17">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="F172" s="17">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="G172" s="17">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H172" s="17">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I172" s="17">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="K172" s="13">
+        <f t="shared" si="9"/>
+        <v>15.449663999999999</v>
+      </c>
+      <c r="L172" s="12">
+        <f t="shared" si="5"/>
+        <v>4.291573333333333</v>
+      </c>
+      <c r="M172" s="12">
+        <f t="shared" si="6"/>
+        <v>4.6839756599999998</v>
+      </c>
+      <c r="N172" s="13">
+        <f t="shared" si="7"/>
+        <v>76.264731900000001</v>
+      </c>
+      <c r="O172" s="13">
+        <f t="shared" si="8"/>
+        <v>64.130200000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B173" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="C173" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="D173" s="17">
+        <v>0.3594</v>
+      </c>
+      <c r="E173" s="17">
+        <v>0.1227</v>
+      </c>
+      <c r="F173" s="17">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G173" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H173" s="17">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="I173" s="17">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="K173" s="13">
+        <f t="shared" si="9"/>
+        <v>18.024607999999997</v>
+      </c>
+      <c r="L173" s="12">
+        <f t="shared" si="5"/>
+        <v>5.006835555555555</v>
+      </c>
+      <c r="M173" s="12">
+        <f t="shared" si="6"/>
+        <v>4.5594254999999997</v>
+      </c>
+      <c r="N173" s="13">
+        <f t="shared" si="7"/>
+        <v>75.925777535999998</v>
+      </c>
+      <c r="O173" s="13">
+        <f t="shared" si="8"/>
+        <v>63.38450000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B174" s="17">
+        <v>12.8</v>
+      </c>
+      <c r="C174" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="D174" s="17">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E174" s="17">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F174" s="17">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="G174" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H174" s="17">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I174" s="17">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K174" s="13">
+        <f t="shared" si="9"/>
+        <v>20.599552000000003</v>
+      </c>
+      <c r="L174" s="12">
+        <f t="shared" si="5"/>
+        <v>5.7220977777777788</v>
+      </c>
+      <c r="M174" s="12">
+        <f t="shared" si="6"/>
+        <v>4.4170824599999996</v>
+      </c>
+      <c r="N174" s="13">
+        <f t="shared" si="7"/>
+        <v>75.473838384000004</v>
+      </c>
+      <c r="O174" s="13">
+        <f t="shared" si="8"/>
+        <v>63.38450000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B175" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="C175" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="D175" s="17">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="E175" s="17">
+        <v>0.1149</v>
+      </c>
+      <c r="F175" s="17">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="G175" s="17">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H175" s="17">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="I175" s="17">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K175" s="13">
+        <f t="shared" si="9"/>
+        <v>23.174496000000001</v>
+      </c>
+      <c r="L175" s="12">
+        <f t="shared" si="5"/>
+        <v>6.43736</v>
+      </c>
+      <c r="M175" s="12">
+        <f t="shared" si="6"/>
+        <v>4.2658429799999995</v>
+      </c>
+      <c r="N175" s="13">
+        <f t="shared" si="7"/>
+        <v>74.682944867999993</v>
+      </c>
+      <c r="O175" s="13">
+        <f t="shared" si="8"/>
+        <v>62.63880000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B176" s="17">
+        <v>16</v>
+      </c>
+      <c r="C176" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="D176" s="17">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="E176" s="17">
+        <v>0.1106</v>
+      </c>
+      <c r="F176" s="17">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="G176" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H176" s="17">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I176" s="17">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K176" s="13">
+        <f t="shared" si="9"/>
+        <v>25.74944</v>
+      </c>
+      <c r="L176" s="12">
+        <f t="shared" si="5"/>
+        <v>7.152622222222222</v>
+      </c>
+      <c r="M176" s="12">
+        <f t="shared" si="6"/>
+        <v>4.1101552799999999</v>
+      </c>
+      <c r="N176" s="13">
+        <f t="shared" si="7"/>
+        <v>73.77906656399999</v>
+      </c>
+      <c r="O176" s="13">
+        <f t="shared" si="8"/>
+        <v>61.893100000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B177" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C177" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D177" s="17">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="E177" s="17">
+        <v>0.1062</v>
+      </c>
+      <c r="F177" s="17">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="G177" s="17">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H177" s="17">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="I177" s="17">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K177" s="13">
+        <f t="shared" si="9"/>
+        <v>28.324384000000002</v>
+      </c>
+      <c r="L177" s="12">
+        <f t="shared" si="5"/>
+        <v>7.8678844444444449</v>
+      </c>
+      <c r="M177" s="12">
+        <f t="shared" si="6"/>
+        <v>3.9455711400000002</v>
+      </c>
+      <c r="N177" s="13">
+        <f t="shared" si="7"/>
+        <v>72.64921868399999</v>
+      </c>
+      <c r="O177" s="13">
+        <f t="shared" si="8"/>
+        <v>61.147400000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B178" s="17">
+        <v>19.2</v>
+      </c>
+      <c r="C178" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="D178" s="17">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="E178" s="17">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="F178" s="17">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="G178" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="H178" s="17">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I178" s="17">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="K178" s="13">
+        <f t="shared" si="9"/>
+        <v>30.899327999999997</v>
+      </c>
+      <c r="L178" s="12">
+        <f t="shared" si="5"/>
+        <v>8.583146666666666</v>
+      </c>
+      <c r="M178" s="12">
+        <f t="shared" si="6"/>
+        <v>3.7676423400000001</v>
+      </c>
+      <c r="N178" s="13">
+        <f t="shared" si="7"/>
+        <v>71.293401227999993</v>
+      </c>
+      <c r="O178" s="13">
+        <f t="shared" si="8"/>
+        <v>59.655999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B179" s="17">
+        <v>20.8</v>
+      </c>
+      <c r="C179" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="D179" s="17">
+        <v>0.5726</v>
+      </c>
+      <c r="E179" s="17">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="F179" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G179" s="17">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H179" s="17">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I179" s="17">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K179" s="13">
+        <f t="shared" si="9"/>
+        <v>33.474271999999999</v>
+      </c>
+      <c r="L179" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2984088888888881</v>
+      </c>
+      <c r="M179" s="12">
+        <f t="shared" si="6"/>
+        <v>3.5897135400000004</v>
+      </c>
+      <c r="N179" s="13">
+        <f t="shared" si="7"/>
+        <v>69.711614195999999</v>
+      </c>
+      <c r="O179" s="13">
+        <f t="shared" si="8"/>
+        <v>58.164600000000007</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B180" s="17">
+        <v>22.4</v>
+      </c>
+      <c r="C180" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="D180" s="17">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="E180" s="17">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="F180" s="17">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G180" s="17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H180" s="17">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I180" s="17">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="K180" s="13">
+        <f t="shared" si="9"/>
+        <v>36.049215999999994</v>
+      </c>
+      <c r="L180" s="12">
+        <f t="shared" si="5"/>
+        <v>10.01367111111111</v>
+      </c>
+      <c r="M180" s="12">
+        <f t="shared" si="6"/>
+        <v>3.3984400800000003</v>
+      </c>
+      <c r="N180" s="13">
+        <f t="shared" si="7"/>
+        <v>67.903857587999994</v>
+      </c>
+      <c r="O180" s="13">
+        <f t="shared" si="8"/>
+        <v>56.673200000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B181" s="17">
+        <v>24.1</v>
+      </c>
+      <c r="C181" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="D181" s="17">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="E181" s="17">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="F181" s="17">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G181" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H181" s="17">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="I181" s="17">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K181" s="13">
+        <f t="shared" si="9"/>
+        <v>38.785094000000001</v>
+      </c>
+      <c r="L181" s="12">
+        <f t="shared" si="5"/>
+        <v>10.773637222222222</v>
+      </c>
+      <c r="M181" s="12">
+        <f t="shared" si="6"/>
+        <v>3.2071666199999997</v>
+      </c>
+      <c r="N181" s="13">
+        <f t="shared" si="7"/>
+        <v>65.870131403999991</v>
+      </c>
+      <c r="O181" s="13">
+        <f t="shared" si="8"/>
+        <v>55.181799999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B182" s="17">
+        <v>25.7</v>
+      </c>
+      <c r="C182" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="D182" s="17">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="E182" s="17">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F182" s="17">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G182" s="17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H182" s="17">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I182" s="17">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K182" s="13">
+        <f t="shared" si="9"/>
+        <v>41.360037999999996</v>
+      </c>
+      <c r="L182" s="12">
+        <f t="shared" si="5"/>
+        <v>11.488899444444444</v>
+      </c>
+      <c r="M182" s="12">
+        <f t="shared" si="6"/>
+        <v>3.0069967200000001</v>
+      </c>
+      <c r="N182" s="13">
+        <f t="shared" si="7"/>
+        <v>63.72342043199999</v>
+      </c>
+      <c r="O182" s="13">
+        <f t="shared" si="8"/>
+        <v>53.690399999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B183" s="17">
+        <v>27.3</v>
+      </c>
+      <c r="C183" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="D183" s="17">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="E183" s="17">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="F183" s="17">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="G183" s="17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H183" s="17">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="I183" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="K183" s="13">
+        <f t="shared" si="9"/>
+        <v>43.934981999999998</v>
+      </c>
+      <c r="L183" s="12">
+        <f t="shared" si="5"/>
+        <v>12.204161666666666</v>
+      </c>
+      <c r="M183" s="12">
+        <f t="shared" si="6"/>
+        <v>2.8023785999999999</v>
+      </c>
+      <c r="N183" s="13">
+        <f t="shared" si="7"/>
+        <v>61.124770308000002</v>
+      </c>
+      <c r="O183" s="13">
+        <f t="shared" si="8"/>
+        <v>51.453300000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B184" s="17">
+        <v>28.9</v>
+      </c>
+      <c r="C184" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="D184" s="17">
+        <v>0.6845</v>
+      </c>
+      <c r="E184" s="17">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F184" s="17">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="G184" s="17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H184" s="17">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="I184" s="17">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="K184" s="13">
+        <f t="shared" si="9"/>
+        <v>46.509926</v>
+      </c>
+      <c r="L184" s="12">
+        <f t="shared" si="5"/>
+        <v>12.919423888888888</v>
+      </c>
+      <c r="M184" s="12">
+        <f t="shared" si="6"/>
+        <v>2.5844158199999998</v>
+      </c>
+      <c r="N184" s="13">
+        <f t="shared" si="7"/>
+        <v>58.074181031999998</v>
+      </c>
+      <c r="O184" s="13">
+        <f t="shared" si="8"/>
+        <v>48.470500000000008</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B185" s="17">
+        <v>30.5</v>
+      </c>
+      <c r="C185" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D185" s="17">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="E185" s="17">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F185" s="17">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="G185" s="17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H185" s="17">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I185" s="17">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="K185" s="13">
+        <f t="shared" si="9"/>
+        <v>49.084870000000002</v>
+      </c>
+      <c r="L185" s="12">
+        <f t="shared" si="5"/>
+        <v>13.634686111111112</v>
+      </c>
+      <c r="M185" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3620048200000001</v>
+      </c>
+      <c r="N185" s="13">
+        <f t="shared" si="7"/>
+        <v>54.910606967999996</v>
+      </c>
+      <c r="O185" s="13">
+        <f t="shared" si="8"/>
+        <v>46.233400000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B186" s="17">
+        <v>32.1</v>
+      </c>
+      <c r="C186" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="D186" s="17">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="E186" s="17">
+        <v>5.74E-2</v>
+      </c>
+      <c r="F186" s="17">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="G186" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H186" s="17">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I186" s="17">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K186" s="13">
+        <f t="shared" si="9"/>
+        <v>51.659814000000004</v>
+      </c>
+      <c r="L186" s="12">
+        <f t="shared" si="5"/>
+        <v>14.349948333333334</v>
+      </c>
+      <c r="M186" s="12">
+        <f t="shared" si="6"/>
+        <v>2.13069738</v>
+      </c>
+      <c r="N186" s="13">
+        <f t="shared" si="7"/>
+        <v>51.408078539999998</v>
+      </c>
+      <c r="O186" s="13">
+        <f t="shared" si="8"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B187" s="17">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C187" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D187" s="17">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="E187" s="17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F187" s="17">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G187" s="17">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H187" s="17">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="I187" s="17">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="K187" s="13">
+        <f t="shared" si="9"/>
+        <v>54.234758000000006</v>
+      </c>
+      <c r="L187" s="12">
+        <f t="shared" si="5"/>
+        <v>15.065210555555558</v>
+      </c>
+      <c r="M187" s="12">
+        <f t="shared" si="6"/>
+        <v>1.8949417200000001</v>
+      </c>
+      <c r="N187" s="13">
+        <f t="shared" si="7"/>
+        <v>47.566595747999997</v>
+      </c>
+      <c r="O187" s="13">
+        <f t="shared" si="8"/>
+        <v>39.522099999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B188" s="17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C188" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D188" s="17">
+        <v>0.71689999999999998</v>
+      </c>
+      <c r="E188" s="17">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="F188" s="17">
+        <v>3.61E-2</v>
+      </c>
+      <c r="G188" s="17">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H188" s="17">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I188" s="17">
+        <v>0.371</v>
+      </c>
+      <c r="K188" s="13">
+        <f t="shared" si="9"/>
+        <v>56.809701999999994</v>
+      </c>
+      <c r="L188" s="12">
+        <f t="shared" si="5"/>
+        <v>15.780472777777776</v>
+      </c>
+      <c r="M188" s="12">
+        <f t="shared" si="6"/>
+        <v>1.6502896199999999</v>
+      </c>
+      <c r="N188" s="13">
+        <f t="shared" si="7"/>
+        <v>43.386158592000001</v>
+      </c>
+      <c r="O188" s="13">
+        <f t="shared" si="8"/>
+        <v>36.539300000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B189" s="17">
+        <v>36.9</v>
+      </c>
+      <c r="C189" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="D189" s="17">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="E189" s="17">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="F189" s="17">
+        <v>3.27E-2</v>
+      </c>
+      <c r="G189" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H189" s="17">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="I189" s="17">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K189" s="13">
+        <f t="shared" si="9"/>
+        <v>59.384645999999996</v>
+      </c>
+      <c r="L189" s="12">
+        <f t="shared" si="5"/>
+        <v>16.495735</v>
+      </c>
+      <c r="M189" s="12">
+        <f t="shared" si="6"/>
+        <v>1.41898218</v>
+      </c>
+      <c r="N189" s="13">
+        <f t="shared" si="7"/>
+        <v>39.20572143599999</v>
+      </c>
+      <c r="O189" s="13">
+        <f t="shared" si="8"/>
+        <v>32.8108</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B190" s="17">
+        <v>38.5</v>
+      </c>
+      <c r="C190" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="D190" s="17">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="E190" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F190" s="17">
+        <v>2.93E-2</v>
+      </c>
+      <c r="G190" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="H190" s="17">
+        <v>0.312</v>
+      </c>
+      <c r="I190" s="17">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K190" s="13">
+        <f t="shared" si="9"/>
+        <v>61.959589999999999</v>
+      </c>
+      <c r="L190" s="12">
+        <f t="shared" si="5"/>
+        <v>17.210997222222222</v>
+      </c>
+      <c r="M190" s="12">
+        <f t="shared" si="6"/>
+        <v>1.1876747400000001</v>
+      </c>
+      <c r="N190" s="13">
+        <f t="shared" si="7"/>
+        <v>35.251253855999998</v>
+      </c>
+      <c r="O190" s="13">
+        <f t="shared" si="8"/>
+        <v>29.827999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B191" s="17">
+        <v>40.1</v>
+      </c>
+      <c r="C191" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="D191" s="17">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="E191" s="17">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F191" s="17">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G191" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H191" s="17">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I191" s="17">
+        <v>0.215</v>
+      </c>
+      <c r="K191" s="13">
+        <f t="shared" si="9"/>
+        <v>64.534534000000008</v>
+      </c>
+      <c r="L191" s="12">
+        <f t="shared" si="5"/>
+        <v>17.926259444444447</v>
+      </c>
+      <c r="M191" s="12">
+        <f t="shared" si="6"/>
+        <v>0.95636730000000003</v>
+      </c>
+      <c r="N191" s="13">
+        <f t="shared" si="7"/>
+        <v>31.070816700000002</v>
+      </c>
+      <c r="O191" s="13">
+        <f t="shared" si="8"/>
+        <v>26.099500000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B192" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="C192" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="D192" s="17">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="E192" s="17">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F192" s="17">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G192" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="H192" s="17">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I192" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K192" s="13">
+        <f t="shared" si="9"/>
+        <v>67.10947800000001</v>
+      </c>
+      <c r="L192" s="12">
+        <f t="shared" si="5"/>
+        <v>18.641521666666669</v>
+      </c>
+      <c r="M192" s="12">
+        <f t="shared" si="6"/>
+        <v>0.72505986</v>
+      </c>
+      <c r="N192" s="13">
+        <f t="shared" si="7"/>
+        <v>27.003364331999997</v>
+      </c>
+      <c r="O192" s="13">
+        <f t="shared" si="8"/>
+        <v>22.370999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B193" s="17">
+        <v>43.3</v>
+      </c>
+      <c r="C193" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="D193" s="17">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="E193" s="17">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="F193" s="17">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G193" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H193" s="17">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I193" s="17">
+        <v>0.111</v>
+      </c>
+      <c r="K193" s="13">
+        <f t="shared" si="9"/>
+        <v>69.684421999999998</v>
+      </c>
+      <c r="L193" s="12">
+        <f t="shared" si="5"/>
+        <v>19.356783888888888</v>
+      </c>
+      <c r="M193" s="12">
+        <f t="shared" si="6"/>
+        <v>0.49375242000000003</v>
+      </c>
+      <c r="N193" s="13">
+        <f t="shared" si="7"/>
+        <v>23.048896751999997</v>
+      </c>
+      <c r="O193" s="13">
+        <f t="shared" si="8"/>
+        <v>19.388200000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B194" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="C194" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="D194" s="17">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="E194" s="17">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F194" s="17">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G194" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H194" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I194" s="17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K194" s="13">
+        <f t="shared" si="9"/>
+        <v>72.259366</v>
+      </c>
+      <c r="L194" s="12">
+        <f t="shared" si="5"/>
+        <v>20.07204611111111</v>
+      </c>
+      <c r="M194" s="12">
+        <f t="shared" si="6"/>
+        <v>0.24465210000000001</v>
+      </c>
+      <c r="N194" s="13">
+        <f t="shared" si="7"/>
+        <v>18.981444384</v>
+      </c>
+      <c r="O194" s="13">
+        <f t="shared" si="8"/>
+        <v>15.659700000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B195" s="17">
+        <v>46.5</v>
+      </c>
+      <c r="C195" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="D195" s="17">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E195" s="17">
+        <v>0</v>
+      </c>
+      <c r="F195" s="17">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G195" s="17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H195" s="17">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I195" s="17">
+        <v>0</v>
+      </c>
+      <c r="K195" s="13">
+        <f t="shared" si="9"/>
+        <v>74.834310000000002</v>
+      </c>
+      <c r="L195" s="12">
+        <f t="shared" si="5"/>
+        <v>20.787308333333332</v>
+      </c>
+      <c r="M195" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N195" s="13">
+        <f t="shared" si="7"/>
+        <v>15.478915956</v>
+      </c>
+      <c r="O195" s="13">
+        <f t="shared" si="8"/>
+        <v>12.676900000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206" s="17" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" s="17" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="17" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="17" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="17" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A230" s="17" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K231" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K232" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K233" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K234" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K235" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A238" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L238" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M238" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N238" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O238" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A239" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B240" s="17">
+        <v>0</v>
+      </c>
+      <c r="C240" s="17">
+        <v>0</v>
+      </c>
+      <c r="D240" s="17">
+        <v>0</v>
+      </c>
+      <c r="E240" s="17">
+        <v>0.1431</v>
+      </c>
+      <c r="F240" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G240" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H240" s="17">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I240" s="17">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="K240" s="13">
+        <f>1.60934*B240</f>
+        <v>0</v>
+      </c>
+      <c r="L240" s="12">
+        <f>K240/3.6</f>
+        <v>0</v>
+      </c>
+      <c r="M240" s="12">
+        <f>4.44822*I240</f>
+        <v>8.3092749599999998</v>
+      </c>
+      <c r="N240" s="13">
+        <f>4.44822*H240*25.4</f>
+        <v>120.215814432</v>
+      </c>
+      <c r="O240" s="13">
+        <f>0.7457*G240*1000</f>
+        <v>126.02330000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B241" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="C241" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="D241" s="17">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="E241" s="17">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F241" s="17">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="G241" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H241" s="17">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I241" s="17">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="K241" s="13">
+        <f>1.60934*B241</f>
+        <v>3.3796140000000001</v>
+      </c>
+      <c r="L241" s="12">
+        <f t="shared" ref="L241:L269" si="10">K241/3.6</f>
+        <v>0.93878166666666663</v>
+      </c>
+      <c r="M241" s="12">
+        <f t="shared" ref="M241:M269" si="11">4.44822*I241</f>
+        <v>8.1758283600000006</v>
+      </c>
+      <c r="N241" s="13">
+        <f t="shared" ref="N241:N269" si="12">4.44822*H241*25.4</f>
+        <v>120.215814432</v>
+      </c>
+      <c r="O241" s="13">
+        <f t="shared" ref="O241:O269" si="13">0.7457*G241*1000</f>
+        <v>126.02330000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B242" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C242" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D242" s="17">
+        <v>0.1173</v>
+      </c>
+      <c r="E242" s="17">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="F242" s="17">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="G242" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H242" s="17">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I242" s="17">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="K242" s="13">
+        <f t="shared" ref="K242:K269" si="14">1.60934*B242</f>
+        <v>6.5982939999999992</v>
+      </c>
+      <c r="L242" s="12">
+        <f t="shared" si="10"/>
+        <v>1.8328594444444442</v>
+      </c>
+      <c r="M242" s="12">
+        <f t="shared" si="11"/>
+        <v>8.0290371</v>
+      </c>
+      <c r="N242" s="13">
+        <f t="shared" si="12"/>
+        <v>120.215814432</v>
+      </c>
+      <c r="O242" s="13">
+        <f t="shared" si="13"/>
+        <v>126.02330000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B243" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="C243" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D243" s="17">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="E243" s="17">
+        <v>0.1356</v>
+      </c>
+      <c r="F243" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G243" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H243" s="17">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="I243" s="17">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="K243" s="13">
+        <f t="shared" si="14"/>
+        <v>9.9779080000000011</v>
+      </c>
+      <c r="L243" s="12">
+        <f t="shared" si="10"/>
+        <v>2.7716411111111112</v>
+      </c>
+      <c r="M243" s="12">
+        <f t="shared" si="11"/>
+        <v>7.8689011799999999</v>
+      </c>
+      <c r="N243" s="13">
+        <f t="shared" si="12"/>
+        <v>120.10282964399998</v>
+      </c>
+      <c r="O243" s="13">
+        <f t="shared" si="13"/>
+        <v>126.02330000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B244" s="17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C244" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="D244" s="17">
+        <v>0.2258</v>
+      </c>
+      <c r="E244" s="17">
+        <v>0.1326</v>
+      </c>
+      <c r="F244" s="17">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="G244" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H244" s="17">
+        <v>1.06</v>
+      </c>
+      <c r="I244" s="17">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="K244" s="13">
+        <f t="shared" si="14"/>
+        <v>13.196587999999998</v>
+      </c>
+      <c r="L244" s="12">
+        <f t="shared" si="10"/>
+        <v>3.6657188888888883</v>
+      </c>
+      <c r="M244" s="12">
+        <f t="shared" si="11"/>
+        <v>7.6998688200000007</v>
+      </c>
+      <c r="N244" s="13">
+        <f t="shared" si="12"/>
+        <v>119.76387527999999</v>
+      </c>
+      <c r="O244" s="13">
+        <f t="shared" si="13"/>
+        <v>125.27760000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B245" s="17">
+        <v>10.3</v>
+      </c>
+      <c r="C245" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D245" s="17">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="E245" s="17">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="F245" s="17">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="G245" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H245" s="17">
+        <v>1.056</v>
+      </c>
+      <c r="I245" s="17">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="K245" s="13">
+        <f t="shared" si="14"/>
+        <v>16.576202000000002</v>
+      </c>
+      <c r="L245" s="12">
+        <f t="shared" si="10"/>
+        <v>4.604500555555556</v>
+      </c>
+      <c r="M245" s="12">
+        <f t="shared" si="11"/>
+        <v>7.5130435800000006</v>
+      </c>
+      <c r="N245" s="13">
+        <f t="shared" si="12"/>
+        <v>119.311936128</v>
+      </c>
+      <c r="O245" s="13">
+        <f t="shared" si="13"/>
+        <v>125.27760000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B246" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="C246" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="D246" s="17">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E246" s="17">
+        <v>0.126</v>
+      </c>
+      <c r="F246" s="17">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G246" s="17">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H246" s="17">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="I246" s="17">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="K246" s="13">
+        <f t="shared" si="14"/>
+        <v>19.794882000000001</v>
+      </c>
+      <c r="L246" s="12">
+        <f t="shared" si="10"/>
+        <v>5.4985783333333336</v>
+      </c>
+      <c r="M246" s="12">
+        <f t="shared" si="11"/>
+        <v>7.31287368</v>
+      </c>
+      <c r="N246" s="13">
+        <f t="shared" si="12"/>
+        <v>118.52104261199999</v>
+      </c>
+      <c r="O246" s="13">
+        <f t="shared" si="13"/>
+        <v>124.53190000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B247" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="C247" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="D247" s="17">
+        <v>0.371</v>
+      </c>
+      <c r="E247" s="17">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="F247" s="17">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="G247" s="17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H247" s="17">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="I247" s="17">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="K247" s="13">
+        <f t="shared" si="14"/>
+        <v>23.174496000000001</v>
+      </c>
+      <c r="L247" s="12">
+        <f t="shared" si="10"/>
+        <v>6.43736</v>
+      </c>
+      <c r="M247" s="12">
+        <f t="shared" si="11"/>
+        <v>7.0993591200000008</v>
+      </c>
+      <c r="N247" s="13">
+        <f t="shared" si="12"/>
+        <v>117.61716430799999</v>
+      </c>
+      <c r="O247" s="13">
+        <f t="shared" si="13"/>
+        <v>123.04050000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B248" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="C248" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="D248" s="17">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="E248" s="17">
+        <v>0.1182</v>
+      </c>
+      <c r="F248" s="17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G248" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H248" s="17">
+        <v>1.03</v>
+      </c>
+      <c r="I248" s="17">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="K248" s="13">
+        <f t="shared" si="14"/>
+        <v>26.554110000000001</v>
+      </c>
+      <c r="L248" s="12">
+        <f t="shared" si="10"/>
+        <v>7.3761416666666673</v>
+      </c>
+      <c r="M248" s="12">
+        <f t="shared" si="11"/>
+        <v>6.8636034600000002</v>
+      </c>
+      <c r="N248" s="13">
+        <f t="shared" si="12"/>
+        <v>116.37433163999999</v>
+      </c>
+      <c r="O248" s="13">
+        <f t="shared" si="13"/>
+        <v>121.54910000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B249" s="17">
+        <v>18.5</v>
+      </c>
+      <c r="C249" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="D249" s="17">
+        <v>0.4551</v>
+      </c>
+      <c r="E249" s="17">
+        <v>0.1139</v>
+      </c>
+      <c r="F249" s="17">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="G249" s="17">
+        <v>0.161</v>
+      </c>
+      <c r="H249" s="17">
+        <v>1.016</v>
+      </c>
+      <c r="I249" s="17">
+        <v>1.486</v>
+      </c>
+      <c r="K249" s="13">
+        <f t="shared" si="14"/>
+        <v>29.772790000000001</v>
+      </c>
+      <c r="L249" s="12">
+        <f t="shared" si="10"/>
+        <v>8.2702194444444448</v>
+      </c>
+      <c r="M249" s="12">
+        <f t="shared" si="11"/>
+        <v>6.6100549199999996</v>
+      </c>
+      <c r="N249" s="13">
+        <f t="shared" si="12"/>
+        <v>114.792544608</v>
+      </c>
+      <c r="O249" s="13">
+        <f t="shared" si="13"/>
+        <v>120.0577</v>
+      </c>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B250" s="17">
+        <v>20.6</v>
+      </c>
+      <c r="C250" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="D250" s="17">
+        <v>0.49309999999999998</v>
+      </c>
+      <c r="E250" s="17">
+        <v>0.1094</v>
+      </c>
+      <c r="F250" s="17">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="G250" s="17">
+        <v>0.159</v>
+      </c>
+      <c r="H250" s="17">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I250" s="17">
+        <v>1.427</v>
+      </c>
+      <c r="K250" s="13">
+        <f t="shared" si="14"/>
+        <v>33.152404000000004</v>
+      </c>
+      <c r="L250" s="12">
+        <f t="shared" si="10"/>
+        <v>9.2090011111111121</v>
+      </c>
+      <c r="M250" s="12">
+        <f t="shared" si="11"/>
+        <v>6.3476099399999999</v>
+      </c>
+      <c r="N250" s="13">
+        <f t="shared" si="12"/>
+        <v>113.09777278799999</v>
+      </c>
+      <c r="O250" s="13">
+        <f t="shared" si="13"/>
+        <v>118.56630000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B251" s="17">
+        <v>22.6</v>
+      </c>
+      <c r="C251" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D251" s="17">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="E251" s="17">
+        <v>0.1046</v>
+      </c>
+      <c r="F251" s="17">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G251" s="17">
+        <v>0.156</v>
+      </c>
+      <c r="H251" s="17">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I251" s="17">
+        <v>1.365</v>
+      </c>
+      <c r="K251" s="13">
+        <f t="shared" si="14"/>
+        <v>36.371084000000003</v>
+      </c>
+      <c r="L251" s="12">
+        <f t="shared" si="10"/>
+        <v>10.10307888888889</v>
+      </c>
+      <c r="M251" s="12">
+        <f t="shared" si="11"/>
+        <v>6.0718202999999997</v>
+      </c>
+      <c r="N251" s="13">
+        <f t="shared" si="12"/>
+        <v>110.95106181599999</v>
+      </c>
+      <c r="O251" s="13">
+        <f t="shared" si="13"/>
+        <v>116.32920000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B252" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="C252" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="D252" s="17">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="E252" s="17">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="F252" s="17">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="G252" s="17">
+        <v>0.152</v>
+      </c>
+      <c r="H252" s="17">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="I252" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="K252" s="13">
+        <f t="shared" si="14"/>
+        <v>39.750698</v>
+      </c>
+      <c r="L252" s="12">
+        <f t="shared" si="10"/>
+        <v>11.041860555555555</v>
+      </c>
+      <c r="M252" s="12">
+        <f t="shared" si="11"/>
+        <v>5.782686</v>
+      </c>
+      <c r="N252" s="13">
+        <f t="shared" si="12"/>
+        <v>108.35241169199998</v>
+      </c>
+      <c r="O252" s="13">
+        <f t="shared" si="13"/>
+        <v>113.3464</v>
+      </c>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B253" s="17">
+        <v>26.7</v>
+      </c>
+      <c r="C253" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="D253" s="17">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="E253" s="17">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="F253" s="17">
+        <v>5.62E-2</v>
+      </c>
+      <c r="G253" s="17">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H253" s="17">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I253" s="17">
+        <v>1.232</v>
+      </c>
+      <c r="K253" s="13">
+        <f t="shared" si="14"/>
+        <v>42.969377999999999</v>
+      </c>
+      <c r="L253" s="12">
+        <f t="shared" si="10"/>
+        <v>11.935938333333333</v>
+      </c>
+      <c r="M253" s="12">
+        <f t="shared" si="11"/>
+        <v>5.4802070399999998</v>
+      </c>
+      <c r="N253" s="13">
+        <f t="shared" si="12"/>
+        <v>105.414807204</v>
+      </c>
+      <c r="O253" s="13">
+        <f t="shared" si="13"/>
+        <v>110.36359999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B254" s="17">
+        <v>28.8</v>
+      </c>
+      <c r="C254" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="D254" s="17">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="E254" s="17">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F254" s="17">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G254" s="17">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H254" s="17">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I254" s="17">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="K254" s="13">
+        <f t="shared" si="14"/>
+        <v>46.348992000000003</v>
+      </c>
+      <c r="L254" s="12">
+        <f t="shared" si="10"/>
+        <v>12.87472</v>
+      </c>
+      <c r="M254" s="12">
+        <f t="shared" si="11"/>
+        <v>5.1688316399999996</v>
+      </c>
+      <c r="N254" s="13">
+        <f t="shared" si="12"/>
+        <v>102.13824835199999</v>
+      </c>
+      <c r="O254" s="13">
+        <f t="shared" si="13"/>
+        <v>106.63509999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B255" s="17">
+        <v>30.9</v>
+      </c>
+      <c r="C255" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="D255" s="17">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E255" s="17">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="F255" s="17">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G255" s="17">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H255" s="17">
+        <v>0.872</v>
+      </c>
+      <c r="I255" s="17">
+        <v>1.089</v>
+      </c>
+      <c r="K255" s="13">
+        <f t="shared" si="14"/>
+        <v>49.728605999999999</v>
+      </c>
+      <c r="L255" s="12">
+        <f t="shared" si="10"/>
+        <v>13.813501666666665</v>
+      </c>
+      <c r="M255" s="12">
+        <f t="shared" si="11"/>
+        <v>4.8441115799999999</v>
+      </c>
+      <c r="N255" s="13">
+        <f t="shared" si="12"/>
+        <v>98.522735135999994</v>
+      </c>
+      <c r="O255" s="13">
+        <f t="shared" si="13"/>
+        <v>102.90660000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B256" s="17">
+        <v>32.9</v>
+      </c>
+      <c r="C256" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="D256" s="17">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="E256" s="17">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="F256" s="17">
+        <v>5.04E-2</v>
+      </c>
+      <c r="G256" s="17">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H256" s="17">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I256" s="17">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K256" s="13">
+        <f t="shared" si="14"/>
+        <v>52.947285999999998</v>
+      </c>
+      <c r="L256" s="12">
+        <f t="shared" si="10"/>
+        <v>14.707579444444443</v>
+      </c>
+      <c r="M256" s="12">
+        <f t="shared" si="11"/>
+        <v>4.5149432999999997</v>
+      </c>
+      <c r="N256" s="13">
+        <f t="shared" si="12"/>
+        <v>94.568267555999995</v>
+      </c>
+      <c r="O256" s="13">
+        <f t="shared" si="13"/>
+        <v>99.178100000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B257" s="17">
+        <v>35</v>
+      </c>
+      <c r="C257" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="D257" s="17">
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="E257" s="17">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="F257" s="17">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="G257" s="17">
+        <v>0.127</v>
+      </c>
+      <c r="H257" s="17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I257" s="17">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K257" s="13">
+        <f t="shared" si="14"/>
+        <v>56.326900000000002</v>
+      </c>
+      <c r="L257" s="12">
+        <f t="shared" si="10"/>
+        <v>15.646361111111112</v>
+      </c>
+      <c r="M257" s="12">
+        <f t="shared" si="11"/>
+        <v>4.1857750199999995</v>
+      </c>
+      <c r="N257" s="13">
+        <f t="shared" si="12"/>
+        <v>90.274845612000007</v>
+      </c>
+      <c r="O257" s="13">
+        <f t="shared" si="13"/>
+        <v>94.703900000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B258" s="17">
+        <v>37</v>
+      </c>
+      <c r="C258" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="D258" s="17">
+        <v>0.71079999999999999</v>
+      </c>
+      <c r="E258" s="17">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="F258" s="17">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="G258" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="H258" s="17">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I258" s="17">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="K258" s="13">
+        <f t="shared" si="14"/>
+        <v>59.545580000000001</v>
+      </c>
+      <c r="L258" s="12">
+        <f t="shared" si="10"/>
+        <v>16.54043888888889</v>
+      </c>
+      <c r="M258" s="12">
+        <f t="shared" si="11"/>
+        <v>3.8521585200000001</v>
+      </c>
+      <c r="N258" s="13">
+        <f t="shared" si="12"/>
+        <v>85.755454092000008</v>
+      </c>
+      <c r="O258" s="13">
+        <f t="shared" si="13"/>
+        <v>89.483999999999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B259" s="17">
+        <v>39.1</v>
+      </c>
+      <c r="C259" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="D259" s="17">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="E259" s="17">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F259" s="17">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="G259" s="17">
+        <v>0.114</v>
+      </c>
+      <c r="H259" s="17">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I259" s="17">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K259" s="13">
+        <f t="shared" si="14"/>
+        <v>62.925194000000005</v>
+      </c>
+      <c r="L259" s="12">
+        <f t="shared" si="10"/>
+        <v>17.479220555555557</v>
+      </c>
+      <c r="M259" s="12">
+        <f t="shared" si="11"/>
+        <v>3.5096455800000004</v>
+      </c>
+      <c r="N259" s="13">
+        <f t="shared" si="12"/>
+        <v>80.897108207999992</v>
+      </c>
+      <c r="O259" s="13">
+        <f t="shared" si="13"/>
+        <v>85.009800000000013</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B260" s="17">
+        <v>41.2</v>
+      </c>
+      <c r="C260" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="D260" s="17">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="E260" s="17">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F260" s="17">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G260" s="17">
+        <v>0.106</v>
+      </c>
+      <c r="H260" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="I260" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="K260" s="13">
+        <f t="shared" si="14"/>
+        <v>66.304808000000008</v>
+      </c>
+      <c r="L260" s="12">
+        <f t="shared" si="10"/>
+        <v>18.418002222222224</v>
+      </c>
+      <c r="M260" s="12">
+        <f t="shared" si="11"/>
+        <v>3.1582361999999997</v>
+      </c>
+      <c r="N260" s="13">
+        <f t="shared" si="12"/>
+        <v>75.699807960000001</v>
+      </c>
+      <c r="O260" s="13">
+        <f t="shared" si="13"/>
+        <v>79.044199999999989</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B261" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="C261" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D261" s="17">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="E261" s="17">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="F261" s="17">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="G261" s="17">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H261" s="17">
+        <v>0.621</v>
+      </c>
+      <c r="I261" s="17">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="K261" s="13">
+        <f t="shared" si="14"/>
+        <v>69.523488</v>
+      </c>
+      <c r="L261" s="12">
+        <f t="shared" si="10"/>
+        <v>19.312079999999998</v>
+      </c>
+      <c r="M261" s="12">
+        <f t="shared" si="11"/>
+        <v>2.8112750399999999</v>
+      </c>
+      <c r="N261" s="13">
+        <f t="shared" si="12"/>
+        <v>70.163553347999994</v>
+      </c>
+      <c r="O261" s="13">
+        <f t="shared" si="13"/>
+        <v>73.824300000000008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B262" s="17">
+        <v>45.3</v>
+      </c>
+      <c r="C262" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="D262" s="17">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="E262" s="17">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="F262" s="17">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G262" s="17">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H262" s="17">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I262" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K262" s="13">
+        <f t="shared" si="14"/>
+        <v>72.90310199999999</v>
+      </c>
+      <c r="L262" s="12">
+        <f t="shared" si="10"/>
+        <v>20.250861666666662</v>
+      </c>
+      <c r="M262" s="12">
+        <f t="shared" si="11"/>
+        <v>2.4732103200000002</v>
+      </c>
+      <c r="N262" s="13">
+        <f t="shared" si="12"/>
+        <v>64.740283523999992</v>
+      </c>
+      <c r="O262" s="13">
+        <f t="shared" si="13"/>
+        <v>67.858699999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B263" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="C263" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="D263" s="17">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="E263" s="17">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="F263" s="17">
+        <v>3.15E-2</v>
+      </c>
+      <c r="G263" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H263" s="17">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I263" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="K263" s="13">
+        <f t="shared" si="14"/>
+        <v>76.121781999999996</v>
+      </c>
+      <c r="L263" s="12">
+        <f t="shared" si="10"/>
+        <v>21.144939444444443</v>
+      </c>
+      <c r="M263" s="12">
+        <f t="shared" si="11"/>
+        <v>2.1351456</v>
+      </c>
+      <c r="N263" s="13">
+        <f t="shared" si="12"/>
+        <v>59.204028911999998</v>
+      </c>
+      <c r="O263" s="13">
+        <f t="shared" si="13"/>
+        <v>61.893100000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B264" s="17">
+        <v>49.4</v>
+      </c>
+      <c r="C264" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="D264" s="17">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="E264" s="17">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="F264" s="17">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="G264" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H264" s="17">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I264" s="17">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="K264" s="13">
+        <f t="shared" si="14"/>
+        <v>79.501396</v>
+      </c>
+      <c r="L264" s="12">
+        <f t="shared" si="10"/>
+        <v>22.08372111111111</v>
+      </c>
+      <c r="M264" s="12">
+        <f t="shared" si="11"/>
+        <v>1.7881844400000002</v>
+      </c>
+      <c r="N264" s="13">
+        <f t="shared" si="12"/>
+        <v>53.328819935999995</v>
+      </c>
+      <c r="O264" s="13">
+        <f t="shared" si="13"/>
+        <v>55.927499999999995</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B265" s="17">
+        <v>51.4</v>
+      </c>
+      <c r="C265" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="D265" s="17">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="E265" s="17">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F265" s="17">
+        <v>2.53E-2</v>
+      </c>
+      <c r="G265" s="17">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H265" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="I265" s="17">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K265" s="13">
+        <f t="shared" si="14"/>
+        <v>82.720075999999992</v>
+      </c>
+      <c r="L265" s="12">
+        <f t="shared" si="10"/>
+        <v>22.977798888888888</v>
+      </c>
+      <c r="M265" s="12">
+        <f t="shared" si="11"/>
+        <v>1.43677506</v>
+      </c>
+      <c r="N265" s="13">
+        <f t="shared" si="12"/>
+        <v>47.453610959999999</v>
+      </c>
+      <c r="O265" s="13">
+        <f t="shared" si="13"/>
+        <v>49.9619</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B266" s="17">
+        <v>53.5</v>
+      </c>
+      <c r="C266" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="D266" s="17">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="E266" s="17">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F266" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="G266" s="17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H266" s="17">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I266" s="17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K266" s="13">
+        <f t="shared" si="14"/>
+        <v>86.099689999999995</v>
+      </c>
+      <c r="L266" s="12">
+        <f t="shared" si="10"/>
+        <v>23.916580555555555</v>
+      </c>
+      <c r="M266" s="12">
+        <f t="shared" si="11"/>
+        <v>1.08091746</v>
+      </c>
+      <c r="N266" s="13">
+        <f t="shared" si="12"/>
+        <v>41.578401983999996</v>
+      </c>
+      <c r="O266" s="13">
+        <f t="shared" si="13"/>
+        <v>43.250600000000006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B267" s="17">
+        <v>55.6</v>
+      </c>
+      <c r="C267" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="D267" s="17">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="E267" s="17">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F267" s="17">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H267" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="I267" s="17">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K267" s="13">
+        <f t="shared" si="14"/>
+        <v>89.479303999999999</v>
+      </c>
+      <c r="L267" s="12">
+        <f t="shared" si="10"/>
+        <v>24.855362222222222</v>
+      </c>
+      <c r="M267" s="12">
+        <f t="shared" si="11"/>
+        <v>0.72505986</v>
+      </c>
+      <c r="N267" s="13">
+        <f t="shared" si="12"/>
+        <v>35.929162583999997</v>
+      </c>
+      <c r="O267" s="13">
+        <f t="shared" si="13"/>
+        <v>37.285000000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B268" s="17">
+        <v>57.6</v>
+      </c>
+      <c r="C268" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="D268" s="17">
+        <v>0.2923</v>
+      </c>
+      <c r="E268" s="17">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="G268" s="17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H268" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="I268" s="17">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K268" s="13">
+        <f t="shared" si="14"/>
+        <v>92.697984000000005</v>
+      </c>
+      <c r="L268" s="12">
+        <f t="shared" si="10"/>
+        <v>25.74944</v>
+      </c>
+      <c r="M268" s="12">
+        <f t="shared" si="11"/>
+        <v>0.36030582</v>
+      </c>
+      <c r="N268" s="13">
+        <f t="shared" si="12"/>
+        <v>30.505892760000002</v>
+      </c>
+      <c r="O268" s="13">
+        <f t="shared" si="13"/>
+        <v>32.065100000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B269" s="17">
+        <v>59.7</v>
+      </c>
+      <c r="C269" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="D269" s="17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E269" s="17">
+        <v>0</v>
+      </c>
+      <c r="F269" s="17">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G269" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H269" s="17">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I269" s="17">
+        <v>0</v>
+      </c>
+      <c r="K269" s="13">
+        <f t="shared" si="14"/>
+        <v>96.077598000000009</v>
+      </c>
+      <c r="L269" s="12">
+        <f t="shared" si="10"/>
+        <v>26.688221666666667</v>
+      </c>
+      <c r="M269" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N269" s="13">
+        <f t="shared" si="12"/>
+        <v>25.534562087999998</v>
+      </c>
+      <c r="O269" s="13">
+        <f t="shared" si="13"/>
+        <v>26.845199999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="17" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="17" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="17" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="17" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="17" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="17" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="17" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="17" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="17" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="17" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="17" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="17" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="17" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="17" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="17" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="17" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="17" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="17" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="17" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="17" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="17" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="17" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="17" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="17" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="17" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="17" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="17" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="17" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="17" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="17" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="17" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="17" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="17" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="17" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="17" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="17" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="17" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="17" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="17" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="17" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="17" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="17" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="17" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="17" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="17" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="17" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="17" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="17" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="17" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="17" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="17" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="17" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="17" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="17" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="17" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="17" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="17" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="17" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="17" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="17" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="17" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="17" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="17" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="17" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="17" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="17" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="17" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="17" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="17" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="17" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="17" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="17" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="17" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="17" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="17" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="17" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="17" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="17" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="17" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="17" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="17" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="17" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="17" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="17" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="17" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="17" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="17" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="17" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="17" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="17" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="17" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="17" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="17" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="17" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="17" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="17" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="17" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="17" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="17" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="17" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="17" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="17" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="17" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="17" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="17" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="17" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="17" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="17" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="17" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="17" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="17" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="17" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="17" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="17" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="17" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="17" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="17" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="17" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="17" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="17" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="17" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="17" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="17" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="17" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="17" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="17" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="17" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="17" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="17" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="17" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="17" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="17" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="17" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="17" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="17" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="17" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="17" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="17" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="17" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="17" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="17" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="17" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="17" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="17" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="17" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Planform" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PER3_8x38SF" sheetId="14" r:id="rId12"/>
     <sheet name="MassBalance" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621" iterateCount="1000" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1646">
   <si>
     <t>Scale size</t>
   </si>
@@ -4957,16 +4957,29 @@
   </si>
   <si>
     <t xml:space="preserve">        90.8        0.80     -0.0566     -0.0010      0.0136       0.121       0.510      -0.028              </t>
+  </si>
+  <si>
+    <t>Root interpolated</t>
+  </si>
+  <si>
+    <t>Arduino Uno and shield: 60gr</t>
+  </si>
+  <si>
+    <t>Receiver small: 4gr</t>
+  </si>
+  <si>
+    <t>Receiver large: 8gr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -5055,7 +5068,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5074,6 +5087,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5250,7 +5265,7 @@
             <c:numRef>
               <c:f>Airfoil!$AW$8:$AW$126</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -5616,7 +5631,7 @@
             <c:numRef>
               <c:f>Airfoil!$AX$8:$AX$126</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>6.9999999999999999E-4</c:v>
@@ -6052,7 +6067,7 @@
             <c:numRef>
               <c:f>Airfoil!$K$8:$K$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0.99839</c:v>
@@ -6298,7 +6313,7 @@
             <c:numRef>
               <c:f>Airfoil!$L$8:$L$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1.5949999999999999E-2</c:v>
@@ -6555,11 +6570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480749440"/>
-        <c:axId val="480750976"/>
+        <c:axId val="120317440"/>
+        <c:axId val="120318976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480749440"/>
+        <c:axId val="120317440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,12 +6612,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480750976"/>
+        <c:crossAx val="120318976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480750976"/>
+        <c:axId val="120318976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6650,7 +6665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480749440"/>
+        <c:crossAx val="120317440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6983,11 +6998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483819904"/>
-        <c:axId val="483821440"/>
+        <c:axId val="151896448"/>
+        <c:axId val="151897984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483819904"/>
+        <c:axId val="151896448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7025,12 +7040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483821440"/>
+        <c:crossAx val="151897984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483821440"/>
+        <c:axId val="151897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7078,7 +7093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483819904"/>
+        <c:crossAx val="151896448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7373,11 +7388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483830400"/>
-        <c:axId val="483836288"/>
+        <c:axId val="151980672"/>
+        <c:axId val="151982464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483830400"/>
+        <c:axId val="151980672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7415,12 +7430,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483836288"/>
+        <c:crossAx val="151982464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483836288"/>
+        <c:axId val="151982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7468,7 +7483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483830400"/>
+        <c:crossAx val="151980672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8170,7 +8185,7 @@
             <c:numRef>
               <c:f>Airfoil!$K$8:$K$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0.99839</c:v>
@@ -8416,7 +8431,7 @@
             <c:numRef>
               <c:f>Airfoil!$L$8:$L$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1.5949999999999999E-2</c:v>
@@ -8673,11 +8688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483862016"/>
-        <c:axId val="483863552"/>
+        <c:axId val="151991808"/>
+        <c:axId val="151993344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483862016"/>
+        <c:axId val="151991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8715,12 +8730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483863552"/>
+        <c:crossAx val="151993344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483863552"/>
+        <c:axId val="151993344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8768,7 +8783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483862016"/>
+        <c:crossAx val="151991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8835,6 +8850,1557 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3514412872303999E-2"/>
+          <c:y val="4.7214074282423218E-2"/>
+          <c:w val="0.87474946935980824"/>
+          <c:h val="0.90557185143515351"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Airfoil!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Root interpolated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airfoil!$M$8:$M$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0.99839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98663999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97729299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96564300000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95215000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93696299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91901699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87058899999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82386999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69133999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66071999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56525999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43474000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33928000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30865999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.22220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14645</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13136200000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.116976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.110054</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.6777000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0426000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4269999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8311000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2548000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.6989999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.1636999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.6492000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6843999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0148999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3139E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9975E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.704E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4333E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1854999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6100000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.5989999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8219999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9729999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.903E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.07E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.07E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.903E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9729999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8219999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.5989999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.6100000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1854999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4333E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.704E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9975E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3139E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0148999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3994999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.2342999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.1636999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.6989999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.2548000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.4269999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.10332</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12408</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14645</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.17033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.19561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.22220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.27886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.30865999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.40244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.46729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.59755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.62941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.66071999999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.69133999999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.72114</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.77778999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.80437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.81008000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.82004999999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.84077800000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.86804099999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.89553000000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.91827400000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.95184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.98662000000000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airfoil!$N$8:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>1.5949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5744000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5980999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6378E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8301999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0324999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.809E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0730000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2179999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7680000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3120000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3409999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2009999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7769999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9360000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9709999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8460000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6320000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3390000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9779999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5529999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.072E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5389999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.1596000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9629999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.7615999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5555000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3450000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1303000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9119999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6910000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4678999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2430999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7892999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5573000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3180000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5749999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1178000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6741999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.444E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2009999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9428000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6794E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1877E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.7389999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.1869999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.7590000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4429999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.67E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.4919999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.5970000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-7.757E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.8199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-9.8989999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.0987E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.205E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.3063E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.4043999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.502E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.6012999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.7011999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.8956000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.9843E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0619999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.1264999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.3522999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.4060000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.4521000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.5239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.598E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.6419999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.631E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.5839999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.512E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.419E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.308E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.1839999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.754E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.451E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.3010000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.1560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-8.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-7.6099999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6.4599999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-5.4200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-4.4799999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-3.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.9099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.2699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.3319999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.9400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-9.2800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.2200000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6979999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.0799999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5949999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-920B-4C24-950F-2494D9334278}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Airfoil!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Airfoil Section Centreline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airfoil!$K$8:$K$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0.99839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98663999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95215000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82386999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77778999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69133999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66071999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56525999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43474000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33928000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30865999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27886</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14645</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12408</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10332</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4269999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6989999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.704E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6100000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.07E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.07E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6100000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.704E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.1560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6989999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.4269999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10332</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.12408</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14645</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.17033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22220999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.27886</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.30865999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.33928000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.43474000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56525999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.59755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.62941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.66071999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69133999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72114</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77778999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.80437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.82004999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89553000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.95184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98662000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airfoil!$L$8:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.5949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0730000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1240000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2179999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7680000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3120000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3409999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2009999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.7769999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9360000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9709999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8460000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6320000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3390000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9779999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5529999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.072E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5389999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9629999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3450000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6910000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3180000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5749999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2009999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.8199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.205E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.502E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.0619999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4060000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.5239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.598E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.6419999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.6530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.631E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.5839999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.512E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.419E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.308E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.1839999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.0469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.9040000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.754E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.602E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.451E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.3010000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.1560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.017E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.6099999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.4599999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-5.4200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.4799999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.2699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.9400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.0799999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5949999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-920B-4C24-950F-2494D9334278}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152581248"/>
+        <c:axId val="152582784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152581248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152582784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152582784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152581248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -8967,11 +10533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508175872"/>
-        <c:axId val="508177408"/>
+        <c:axId val="154690688"/>
+        <c:axId val="154692224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508175872"/>
+        <c:axId val="154690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,12 +10547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508177408"/>
+        <c:crossAx val="154692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508177408"/>
+        <c:axId val="154692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8997,13 +10563,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508175872"/>
+        <c:crossAx val="154690688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9521,6 +11088,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17471,8 +19076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="M144" sqref="M144"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23569,13 +25174,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C8"/>
+  <dimension ref="A6:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -23596,6 +25204,30 @@
       </c>
       <c r="C8">
         <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -23608,19 +25240,31 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:BD126"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AT29" sqref="AT29"/>
+    <sheetView topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="11" width="8.5703125"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="49" width="8.5703125"/>
+    <col min="50" max="50" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
+      <c r="K2">
+        <f>COUNT(K8:K86)</f>
+        <v>79</v>
+      </c>
+      <c r="AW2">
+        <f>COUNT(AW8:AW126)</f>
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23689,8 +25333,8 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="N6">
-        <v>2</v>
+      <c r="N6" t="s">
+        <v>1642</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
@@ -23950,16 +25594,22 @@
         <f t="shared" si="0"/>
         <v>0.15538666330505518</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="18">
         <v>0.99839</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="18">
         <v>1.5949999999999999E-2</v>
       </c>
-      <c r="AW8">
+      <c r="M8">
+        <v>0.99839</v>
+      </c>
+      <c r="N8">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="AW8" s="18">
         <v>1</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="18">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AZ8">
@@ -23988,16 +25638,22 @@
         <f t="shared" si="0"/>
         <v>0.15530637815946341</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="18">
         <v>0.98663999999999996</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="18">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AW9">
+      <c r="M9">
+        <v>0.99331000000000003</v>
+      </c>
+      <c r="N9">
+        <v>1.5744000000000001E-2</v>
+      </c>
+      <c r="AW9" s="18">
         <v>0.96091000000000004</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="18">
         <v>4.28E-3</v>
       </c>
       <c r="AZ9">
@@ -24026,16 +25682,22 @@
         <f t="shared" si="0"/>
         <v>0.15403752379326352</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="18">
         <v>0.95215000000000005</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="18">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AW10">
+      <c r="M10">
+        <v>0.98663999999999996</v>
+      </c>
+      <c r="N10">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AW10" s="18">
         <v>0.94833000000000001</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="18">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="AZ10">
@@ -24064,16 +25726,22 @@
         <f t="shared" si="0"/>
         <v>0.15149632440235977</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="18">
         <v>0.89695999999999998</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="18">
         <v>2.3550000000000001E-2</v>
       </c>
-      <c r="AW11">
+      <c r="M11">
+        <v>0.97729299999999997</v>
+      </c>
+      <c r="N11">
+        <v>1.5980999999999999E-2</v>
+      </c>
+      <c r="AW11" s="18">
         <v>0.93571000000000004</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="18">
         <v>6.5399999999999998E-3</v>
       </c>
       <c r="AZ11">
@@ -24102,16 +25770,22 @@
         <f t="shared" si="0"/>
         <v>0.14759376819490047</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="18">
         <v>0.82386999999999999</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="18">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="AW12">
+      <c r="M12">
+        <v>0.96564300000000003</v>
+      </c>
+      <c r="N12">
+        <v>1.6378E-2</v>
+      </c>
+      <c r="AW12" s="18">
         <v>0.92306999999999995</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="18">
         <v>7.6899999999999998E-3</v>
       </c>
       <c r="AZ12">
@@ -24140,16 +25814,22 @@
         <f t="shared" si="0"/>
         <v>0.1422303714035219</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="18">
         <v>0.80437999999999998</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="18">
         <v>4.0730000000000002E-2</v>
       </c>
-      <c r="AW13">
+      <c r="M13">
+        <v>0.95215000000000005</v>
+      </c>
+      <c r="N13">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="AW13" s="18">
         <v>0.89778000000000002</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="18">
         <v>9.9900000000000006E-3</v>
       </c>
       <c r="AZ13">
@@ -24178,16 +25858,22 @@
         <f t="shared" si="0"/>
         <v>0.13530141427310441</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="18">
         <v>0.77778999999999998</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="18">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="AW14">
+      <c r="M14">
+        <v>0.93696299999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.8301999999999999E-2</v>
+      </c>
+      <c r="AW14" s="18">
         <v>0.88514999999999999</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="18">
         <v>1.1140000000000001E-2</v>
       </c>
       <c r="AZ14">
@@ -24216,16 +25902,22 @@
         <f t="shared" si="0"/>
         <v>0.12669694106077237</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="18">
         <v>0.75</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="18">
         <v>5.1240000000000001E-2</v>
       </c>
-      <c r="AW15">
+      <c r="M15">
+        <v>0.91901699999999997</v>
+      </c>
+      <c r="N15">
+        <v>2.0324999999999999E-2</v>
+      </c>
+      <c r="AW15" s="18">
         <v>0.84728000000000003</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="18">
         <v>1.455E-2</v>
       </c>
       <c r="AZ15">
@@ -24254,16 +25946,22 @@
         <f t="shared" si="0"/>
         <v>0.11629826937739017</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="18">
         <v>0.72114</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="18">
         <v>5.6680000000000001E-2</v>
       </c>
-      <c r="AW16">
+      <c r="M16">
+        <v>0.89695999999999998</v>
+      </c>
+      <c r="N16">
+        <v>2.3550000000000001E-2</v>
+      </c>
+      <c r="AW16" s="18">
         <v>0.82206000000000001</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" s="18">
         <v>1.6789999999999999E-2</v>
       </c>
       <c r="AZ16">
@@ -24292,16 +25990,22 @@
         <f t="shared" si="0"/>
         <v>0.10398497150457017</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="18">
         <v>0.69133999999999995</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="18">
         <v>6.2179999999999999E-2</v>
       </c>
-      <c r="AW17">
+      <c r="M17">
+        <v>0.87058899999999995</v>
+      </c>
+      <c r="N17">
+        <v>2.809E-2</v>
+      </c>
+      <c r="AW17" s="18">
         <v>0.80944000000000005</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" s="18">
         <v>1.789E-2</v>
       </c>
       <c r="AZ17">
@@ -24330,16 +26034,22 @@
         <f t="shared" si="0"/>
         <v>8.9643601040932747E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="18">
         <v>0.66071999999999997</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="18">
         <v>6.7680000000000004E-2</v>
       </c>
-      <c r="AW18">
+      <c r="M18">
+        <v>0.82386999999999999</v>
+      </c>
+      <c r="N18">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="AW18" s="18">
         <v>0.79683000000000004</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" s="18">
         <v>1.898E-2</v>
       </c>
       <c r="AZ18">
@@ -24368,16 +26078,22 @@
         <f t="shared" si="0"/>
         <v>7.3176419548366262E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="18">
         <v>0.62941000000000003</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="18">
         <v>7.3120000000000004E-2</v>
       </c>
-      <c r="AW19">
+      <c r="M19">
+        <v>0.80437999999999998</v>
+      </c>
+      <c r="N19">
+        <v>4.0730000000000002E-2</v>
+      </c>
+      <c r="AW19" s="18">
         <v>0.78422000000000003</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" s="18">
         <v>2.0060000000000001E-2</v>
       </c>
       <c r="AZ19">
@@ -24406,16 +26122,22 @@
         <f t="shared" si="0"/>
         <v>5.4546775112578778E-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="18">
         <v>0.59755000000000003</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="18">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="AW20">
+      <c r="M20">
+        <v>0.72114</v>
+      </c>
+      <c r="N20">
+        <v>5.6680000000000001E-2</v>
+      </c>
+      <c r="AW20" s="18">
         <v>0.77159999999999995</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" s="18">
         <v>2.1129999999999999E-2</v>
       </c>
       <c r="AZ20">
@@ -24444,16 +26166,22 @@
         <f t="shared" si="0"/>
         <v>3.3848915513178028E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="18">
         <v>0.56525999999999998</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="18">
         <v>8.3409999999999998E-2</v>
       </c>
-      <c r="AW21">
+      <c r="M21">
+        <v>0.69133999999999995</v>
+      </c>
+      <c r="N21">
+        <v>6.2179999999999999E-2</v>
+      </c>
+      <c r="AW21" s="18">
         <v>0.73373999999999995</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" s="18">
         <v>2.4279999999999999E-2</v>
       </c>
       <c r="AZ21">
@@ -24482,16 +26210,22 @@
         <f t="shared" si="0"/>
         <v>1.1499974441390637E-2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="18">
         <v>0.53269999999999995</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="18">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AW22">
+      <c r="M22">
+        <v>0.66071999999999997</v>
+      </c>
+      <c r="N22">
+        <v>6.7680000000000004E-2</v>
+      </c>
+      <c r="AW22" s="18">
         <v>0.72111999999999998</v>
       </c>
-      <c r="AX22">
+      <c r="AX22" s="18">
         <v>2.5309999999999999E-2</v>
       </c>
       <c r="AZ22">
@@ -24520,16 +26254,22 @@
         <f t="shared" si="0"/>
         <v>-1.1199777810047613E-2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="18">
         <v>0.5</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="18">
         <v>9.2009999999999995E-2</v>
       </c>
-      <c r="AW23">
+      <c r="M23">
+        <v>0.62941000000000003</v>
+      </c>
+      <c r="N23">
+        <v>7.3120000000000004E-2</v>
+      </c>
+      <c r="AW23" s="18">
         <v>0.69586999999999999</v>
       </c>
-      <c r="AX23">
+      <c r="AX23" s="18">
         <v>2.734E-2</v>
       </c>
       <c r="AZ23">
@@ -24558,16 +26298,22 @@
         <f t="shared" si="0"/>
         <v>-2.9192377068857158E-2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="18">
         <v>0.46729999999999999</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="18">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="AW24">
+      <c r="M24">
+        <v>0.59755000000000003</v>
+      </c>
+      <c r="N24">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="AW24" s="18">
         <v>0.68325000000000002</v>
       </c>
-      <c r="AX24">
+      <c r="AX24" s="18">
         <v>2.8340000000000001E-2</v>
       </c>
       <c r="AZ24">
@@ -24586,16 +26332,22 @@
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K25">
+      <c r="K25" s="18">
         <v>0.43474000000000002</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="18">
         <v>9.7769999999999996E-2</v>
       </c>
-      <c r="AW25">
+      <c r="M25">
+        <v>0.56525999999999998</v>
+      </c>
+      <c r="N25">
+        <v>8.3409999999999998E-2</v>
+      </c>
+      <c r="AW25" s="18">
         <v>0.67062999999999995</v>
       </c>
-      <c r="AX25">
+      <c r="AX25" s="18">
         <v>2.9329999999999998E-2</v>
       </c>
       <c r="AZ25">
@@ -24614,16 +26366,22 @@
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K26">
+      <c r="K26" s="18">
         <v>0.40244999999999997</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="18">
         <v>9.9360000000000004E-2</v>
       </c>
-      <c r="AW26">
+      <c r="M26">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="N26">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AW26" s="18">
         <v>0.65800999999999998</v>
       </c>
-      <c r="AX26">
+      <c r="AX26" s="18">
         <v>3.031E-2</v>
       </c>
       <c r="AZ26">
@@ -24642,16 +26400,22 @@
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K27">
+      <c r="K27" s="18">
         <v>0.37058999999999997</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="18">
         <v>0.1</v>
       </c>
-      <c r="AW27">
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>9.2009999999999995E-2</v>
+      </c>
+      <c r="AW27" s="18">
         <v>0.62017</v>
       </c>
-      <c r="AX27">
+      <c r="AX27" s="18">
         <v>3.3149999999999999E-2</v>
       </c>
       <c r="AZ27">
@@ -24670,16 +26434,22 @@
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K28">
+      <c r="K28" s="18">
         <v>0.33928000000000003</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="18">
         <v>9.9709999999999993E-2</v>
       </c>
-      <c r="AW28">
+      <c r="M28">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="N28">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="AW28" s="18">
         <v>0.60755999999999999</v>
       </c>
-      <c r="AX28">
+      <c r="AX28" s="18">
         <v>3.406E-2</v>
       </c>
       <c r="AZ28">
@@ -24698,16 +26468,22 @@
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K29">
+      <c r="K29" s="18">
         <v>0.30865999999999999</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="18">
         <v>9.8460000000000006E-2</v>
       </c>
-      <c r="AW29">
+      <c r="M29">
+        <v>0.43474000000000002</v>
+      </c>
+      <c r="N29">
+        <v>9.7769999999999996E-2</v>
+      </c>
+      <c r="AW29" s="18">
         <v>0.59494999999999998</v>
       </c>
-      <c r="AX29">
+      <c r="AX29" s="18">
         <v>3.4959999999999998E-2</v>
       </c>
       <c r="AZ29">
@@ -24726,16 +26502,22 @@
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K30">
+      <c r="K30" s="18">
         <v>0.27886</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="18">
         <v>9.6320000000000003E-2</v>
       </c>
-      <c r="AW30">
+      <c r="M30">
+        <v>0.40244999999999997</v>
+      </c>
+      <c r="N30">
+        <v>9.9360000000000004E-2</v>
+      </c>
+      <c r="AW30" s="18">
         <v>0.56974999999999998</v>
       </c>
-      <c r="AX30">
+      <c r="AX30" s="18">
         <v>3.6700000000000003E-2</v>
       </c>
       <c r="AZ30">
@@ -24748,16 +26530,22 @@
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K31">
+      <c r="K31" s="18">
         <v>0.25</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="18">
         <v>9.3390000000000001E-2</v>
       </c>
-      <c r="AW31">
+      <c r="M31">
+        <v>0.37058999999999997</v>
+      </c>
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="AW31" s="18">
         <v>0.55715000000000003</v>
       </c>
-      <c r="AX31">
+      <c r="AX31" s="18">
         <v>3.7539999999999997E-2</v>
       </c>
       <c r="AZ31">
@@ -24770,16 +26558,22 @@
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="K32">
+      <c r="K32" s="18">
         <v>0.22220999999999999</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="18">
         <v>8.9779999999999999E-2</v>
       </c>
-      <c r="AW32">
+      <c r="M32">
+        <v>0.33928000000000003</v>
+      </c>
+      <c r="N32">
+        <v>9.9709999999999993E-2</v>
+      </c>
+      <c r="AW32" s="18">
         <v>0.54454999999999998</v>
       </c>
-      <c r="AX32">
+      <c r="AX32" s="18">
         <v>3.8359999999999998E-2</v>
       </c>
       <c r="AZ32">
@@ -24792,16 +26586,22 @@
       </c>
     </row>
     <row r="33" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K33">
+      <c r="K33" s="18">
         <v>0.19561999999999999</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="18">
         <v>8.5529999999999995E-2</v>
       </c>
-      <c r="AW33">
+      <c r="M33">
+        <v>0.30865999999999999</v>
+      </c>
+      <c r="N33">
+        <v>9.8460000000000006E-2</v>
+      </c>
+      <c r="AW33" s="18">
         <v>0.50678000000000001</v>
       </c>
-      <c r="AX33">
+      <c r="AX33" s="18">
         <v>4.0669999999999998E-2</v>
       </c>
       <c r="AZ33">
@@ -24814,16 +26614,22 @@
       </c>
     </row>
     <row r="34" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K34">
+      <c r="K34" s="18">
         <v>0.17033000000000001</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="18">
         <v>8.072E-2</v>
       </c>
-      <c r="AW34">
+      <c r="M34">
+        <v>0.27886</v>
+      </c>
+      <c r="N34">
+        <v>9.6320000000000003E-2</v>
+      </c>
+      <c r="AW34" s="18">
         <v>0.49419999999999997</v>
       </c>
-      <c r="AX34">
+      <c r="AX34" s="18">
         <v>4.1390000000000003E-2</v>
       </c>
       <c r="AZ34">
@@ -24836,16 +26642,22 @@
       </c>
     </row>
     <row r="35" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K35">
+      <c r="K35" s="18">
         <v>0.14645</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="18">
         <v>7.5389999999999999E-2</v>
       </c>
-      <c r="AW35">
+      <c r="M35">
+        <v>0.25</v>
+      </c>
+      <c r="N35">
+        <v>9.3390000000000001E-2</v>
+      </c>
+      <c r="AW35" s="18">
         <v>0.48161999999999999</v>
       </c>
-      <c r="AX35">
+      <c r="AX35" s="18">
         <v>4.2079999999999999E-2</v>
       </c>
       <c r="AZ35">
@@ -24858,16 +26670,22 @@
       </c>
     </row>
     <row r="36" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K36">
+      <c r="K36" s="18">
         <v>0.12408</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="18">
         <v>6.9629999999999997E-2</v>
       </c>
-      <c r="AW36">
+      <c r="M36">
+        <v>0.22220999999999999</v>
+      </c>
+      <c r="N36">
+        <v>8.9779999999999999E-2</v>
+      </c>
+      <c r="AW36" s="18">
         <v>0.46904000000000001</v>
       </c>
-      <c r="AX36">
+      <c r="AX36" s="18">
         <v>4.274E-2</v>
       </c>
       <c r="AZ36">
@@ -24880,16 +26698,22 @@
       </c>
     </row>
     <row r="37" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K37">
+      <c r="K37" s="18">
         <v>0.10332</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="18">
         <v>6.3450000000000006E-2</v>
       </c>
-      <c r="AW37">
+      <c r="M37">
+        <v>0.19561999999999999</v>
+      </c>
+      <c r="N37">
+        <v>8.5529999999999995E-2</v>
+      </c>
+      <c r="AW37" s="18">
         <v>0.43131999999999998</v>
       </c>
-      <c r="AX37">
+      <c r="AX37" s="18">
         <v>4.453E-2</v>
       </c>
       <c r="AZ37">
@@ -24902,16 +26726,22 @@
       </c>
     </row>
     <row r="38" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K38">
+      <c r="K38" s="18">
         <v>8.4269999999999998E-2</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="18">
         <v>5.6910000000000002E-2</v>
       </c>
-      <c r="AW38">
+      <c r="M38">
+        <v>0.17033000000000001</v>
+      </c>
+      <c r="N38">
+        <v>8.072E-2</v>
+      </c>
+      <c r="AW38" s="18">
         <v>0.40620000000000001</v>
       </c>
-      <c r="AX38">
+      <c r="AX38" s="18">
         <v>4.5560000000000003E-2</v>
       </c>
       <c r="AZ38">
@@ -24924,16 +26754,22 @@
       </c>
     </row>
     <row r="39" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K39">
+      <c r="K39" s="18">
         <v>6.6989999999999994E-2</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="18">
         <v>5.0169999999999999E-2</v>
       </c>
-      <c r="AW39">
+      <c r="M39">
+        <v>0.14645</v>
+      </c>
+      <c r="N39">
+        <v>7.5389999999999999E-2</v>
+      </c>
+      <c r="AW39" s="18">
         <v>0.38107999999999997</v>
       </c>
-      <c r="AX39">
+      <c r="AX39" s="18">
         <v>4.6440000000000002E-2</v>
       </c>
       <c r="AZ39">
@@ -24946,16 +26782,22 @@
       </c>
     </row>
     <row r="40" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K40">
+      <c r="K40" s="18">
         <v>5.1560000000000002E-2</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="18">
         <v>4.3180000000000003E-2</v>
       </c>
-      <c r="AW40">
+      <c r="M40">
+        <v>0.13136200000000001</v>
+      </c>
+      <c r="N40">
+        <v>7.1596000000000007E-2</v>
+      </c>
+      <c r="AW40" s="18">
         <v>0.36853000000000002</v>
       </c>
-      <c r="AX40">
+      <c r="AX40" s="18">
         <v>4.6820000000000001E-2</v>
       </c>
       <c r="AZ40">
@@ -24968,16 +26810,22 @@
       </c>
     </row>
     <row r="41" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K41">
+      <c r="K41" s="18">
         <v>3.8059999999999997E-2</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="18">
         <v>3.5749999999999997E-2</v>
       </c>
-      <c r="AW41">
+      <c r="M41">
+        <v>0.12408</v>
+      </c>
+      <c r="N41">
+        <v>6.9629999999999997E-2</v>
+      </c>
+      <c r="AW41" s="18">
         <v>0.35598999999999997</v>
       </c>
-      <c r="AX41">
+      <c r="AX41" s="18">
         <v>4.7160000000000001E-2</v>
       </c>
       <c r="AZ41">
@@ -24990,16 +26838,22 @@
       </c>
     </row>
     <row r="42" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K42">
+      <c r="K42" s="18">
         <v>2.6530000000000001E-2</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="18">
         <v>2.8969999999999999E-2</v>
       </c>
-      <c r="AW42">
+      <c r="M42">
+        <v>0.116976</v>
+      </c>
+      <c r="N42">
+        <v>6.7615999999999996E-2</v>
+      </c>
+      <c r="AW42" s="18">
         <v>0.34345999999999999</v>
       </c>
-      <c r="AX42">
+      <c r="AX42" s="18">
         <v>4.7449999999999999E-2</v>
       </c>
       <c r="AZ42">
@@ -25012,16 +26866,22 @@
       </c>
     </row>
     <row r="43" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K43">
+      <c r="K43" s="18">
         <v>1.704E-2</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="18">
         <v>2.2009999999999998E-2</v>
       </c>
-      <c r="AW43">
+      <c r="M43">
+        <v>0.110054</v>
+      </c>
+      <c r="N43">
+        <v>6.5555000000000002E-2</v>
+      </c>
+      <c r="AW43" s="18">
         <v>0.33093</v>
       </c>
-      <c r="AX43">
+      <c r="AX43" s="18">
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="AZ43">
@@ -25034,16 +26894,22 @@
       </c>
     </row>
     <row r="44" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K44">
+      <c r="K44" s="18">
         <v>9.6100000000000005E-3</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="18">
         <v>1.4239999999999999E-2</v>
       </c>
-      <c r="AW44">
+      <c r="M44">
+        <v>0.10332</v>
+      </c>
+      <c r="N44">
+        <v>6.3450000000000006E-2</v>
+      </c>
+      <c r="AW44" s="18">
         <v>0.29342000000000001</v>
       </c>
-      <c r="AX44">
+      <c r="AX44" s="18">
         <v>4.8140000000000002E-2</v>
       </c>
       <c r="AZ44">
@@ -25056,16 +26922,22 @@
       </c>
     </row>
     <row r="45" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K45">
+      <c r="K45" s="18">
         <v>4.28E-3</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="18">
         <v>7.8399999999999997E-3</v>
       </c>
-      <c r="AW45">
+      <c r="M45">
+        <v>9.6777000000000002E-2</v>
+      </c>
+      <c r="N45">
+        <v>6.1303000000000003E-2</v>
+      </c>
+      <c r="AW45" s="18">
         <v>0.26848</v>
       </c>
-      <c r="AX45">
+      <c r="AX45" s="18">
         <v>4.8160000000000001E-2</v>
       </c>
       <c r="AZ45">
@@ -25078,16 +26950,22 @@
       </c>
     </row>
     <row r="46" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K46">
+      <c r="K46" s="18">
         <v>1.07E-3</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="18">
         <v>3.5300000000000002E-3</v>
       </c>
-      <c r="AW46">
+      <c r="M46">
+        <v>9.0426000000000006E-2</v>
+      </c>
+      <c r="N46">
+        <v>5.9119999999999999E-2</v>
+      </c>
+      <c r="AW46" s="18">
         <v>0.25603999999999999</v>
       </c>
-      <c r="AX46">
+      <c r="AX46" s="18">
         <v>4.8070000000000002E-2</v>
       </c>
       <c r="AZ46">
@@ -25100,16 +26978,22 @@
       </c>
     </row>
     <row r="47" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K47">
+      <c r="K47" s="18">
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="18">
         <v>0</v>
       </c>
-      <c r="AW47">
+      <c r="M47">
+        <v>8.4269999999999998E-2</v>
+      </c>
+      <c r="N47">
+        <v>5.6910000000000002E-2</v>
+      </c>
+      <c r="AW47" s="18">
         <v>0.24362</v>
       </c>
-      <c r="AX47">
+      <c r="AX47" s="18">
         <v>4.7910000000000001E-2</v>
       </c>
       <c r="AZ47">
@@ -25122,14 +27006,18 @@
       </c>
     </row>
     <row r="48" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K48" s="4">
+      <c r="K48" s="19">
         <v>1.07E-3</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="19">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="M48" s="4">
+        <v>7.8311000000000006E-2</v>
+      </c>
+      <c r="N48" s="4">
+        <v>5.4678999999999998E-2</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -25142,10 +27030,10 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
-      <c r="AW48">
+      <c r="AW48" s="18">
         <v>0.23122000000000001</v>
       </c>
-      <c r="AX48">
+      <c r="AX48" s="18">
         <v>4.7669999999999997E-2</v>
       </c>
       <c r="AZ48">
@@ -25158,16 +27046,22 @@
       </c>
     </row>
     <row r="49" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K49">
+      <c r="K49" s="18">
         <v>4.28E-3</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="18">
         <v>-8.8199999999999997E-3</v>
       </c>
-      <c r="AW49">
+      <c r="M49">
+        <v>7.2548000000000001E-2</v>
+      </c>
+      <c r="N49">
+        <v>5.2430999999999998E-2</v>
+      </c>
+      <c r="AW49" s="18">
         <v>0.21884999999999999</v>
       </c>
-      <c r="AX49">
+      <c r="AX49" s="18">
         <v>4.7359999999999999E-2</v>
       </c>
       <c r="AZ49">
@@ -25180,16 +27074,22 @@
       </c>
     </row>
     <row r="50" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K50">
+      <c r="K50" s="18">
         <v>9.6100000000000005E-3</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="18">
         <v>-1.205E-2</v>
       </c>
-      <c r="AW50">
+      <c r="M50">
+        <v>6.6989999999999994E-2</v>
+      </c>
+      <c r="N50">
+        <v>5.0169999999999999E-2</v>
+      </c>
+      <c r="AW50" s="18">
         <v>0.20652000000000001</v>
       </c>
-      <c r="AX50">
+      <c r="AX50" s="18">
         <v>4.6960000000000002E-2</v>
       </c>
       <c r="AZ50">
@@ -25202,16 +27102,22 @@
       </c>
     </row>
     <row r="51" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K51">
+      <c r="K51" s="18">
         <v>1.704E-2</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="18">
         <v>-1.502E-2</v>
       </c>
-      <c r="AW51">
+      <c r="M51">
+        <v>6.1636999999999997E-2</v>
+      </c>
+      <c r="N51">
+        <v>4.7892999999999998E-2</v>
+      </c>
+      <c r="AW51" s="18">
         <v>0.15762000000000001</v>
       </c>
-      <c r="AX51">
+      <c r="AX51" s="18">
         <v>4.4339999999999997E-2</v>
       </c>
       <c r="AZ51">
@@ -25224,16 +27130,22 @@
       </c>
     </row>
     <row r="52" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K52">
+      <c r="K52" s="18">
         <v>2.6530000000000001E-2</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="18">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="AW52">
+      <c r="M52">
+        <v>5.6492000000000001E-2</v>
+      </c>
+      <c r="N52">
+        <v>4.5573000000000002E-2</v>
+      </c>
+      <c r="AW52" s="18">
         <v>0.14554</v>
       </c>
-      <c r="AX52">
+      <c r="AX52" s="18">
         <v>4.3380000000000002E-2</v>
       </c>
       <c r="AZ52">
@@ -25246,16 +27158,22 @@
       </c>
     </row>
     <row r="53" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K53">
+      <c r="K53" s="18">
         <v>3.8059999999999997E-2</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="18">
         <v>-2.0619999999999999E-2</v>
       </c>
-      <c r="AW53">
+      <c r="M53">
+        <v>5.1560000000000002E-2</v>
+      </c>
+      <c r="N53">
+        <v>4.3180000000000003E-2</v>
+      </c>
+      <c r="AW53" s="18">
         <v>0.13355</v>
       </c>
-      <c r="AX53">
+      <c r="AX53" s="18">
         <v>4.2290000000000001E-2</v>
       </c>
       <c r="AZ53">
@@ -25268,16 +27186,22 @@
       </c>
     </row>
     <row r="54" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K54">
+      <c r="K54" s="18">
         <v>5.1560000000000002E-2</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="18">
         <v>-2.2370000000000001E-2</v>
       </c>
-      <c r="AW54">
+      <c r="M54">
+        <v>4.6843999999999997E-2</v>
+      </c>
+      <c r="N54">
+        <v>4.07E-2</v>
+      </c>
+      <c r="AW54" s="18">
         <v>0.12166</v>
       </c>
-      <c r="AX54">
+      <c r="AX54" s="18">
         <v>4.1029999999999997E-2</v>
       </c>
       <c r="AZ54">
@@ -25290,16 +27214,22 @@
       </c>
     </row>
     <row r="55" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K55">
+      <c r="K55" s="18">
         <v>6.6989999999999994E-2</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="18">
         <v>-2.4060000000000002E-2</v>
       </c>
-      <c r="AW55">
+      <c r="M55">
+        <v>3.8059999999999997E-2</v>
+      </c>
+      <c r="N55">
+        <v>3.5749999999999997E-2</v>
+      </c>
+      <c r="AW55" s="18">
         <v>9.8250000000000004E-2</v>
       </c>
-      <c r="AX55">
+      <c r="AX55" s="18">
         <v>3.8010000000000002E-2</v>
       </c>
       <c r="AZ55">
@@ -25312,16 +27242,22 @@
       </c>
     </row>
     <row r="56" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K56">
+      <c r="K56" s="18">
         <v>8.4269999999999998E-2</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="18">
         <v>-2.5239999999999999E-2</v>
       </c>
-      <c r="AW56">
+      <c r="M56">
+        <v>3.0148999999999999E-2</v>
+      </c>
+      <c r="N56">
+        <v>3.1178000000000001E-2</v>
+      </c>
+      <c r="AW56" s="18">
         <v>7.5560000000000002E-2</v>
       </c>
-      <c r="AX56">
+      <c r="AX56" s="18">
         <v>3.415E-2</v>
       </c>
       <c r="AZ56">
@@ -25334,16 +27270,22 @@
       </c>
     </row>
     <row r="57" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K57">
+      <c r="K57" s="18">
         <v>0.10332</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="18">
         <v>-2.598E-2</v>
       </c>
-      <c r="AW57">
+      <c r="M57">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="N57">
+        <v>2.8969999999999999E-2</v>
+      </c>
+      <c r="AW57" s="18">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="AX57">
+      <c r="AX57" s="18">
         <v>3.1859999999999999E-2</v>
       </c>
       <c r="AZ57">
@@ -25356,16 +27298,22 @@
       </c>
     </row>
     <row r="58" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K58">
+      <c r="K58" s="18">
         <v>0.12408</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="18">
         <v>-2.6419999999999999E-2</v>
       </c>
-      <c r="AW58">
+      <c r="M58">
+        <v>2.3139E-2</v>
+      </c>
+      <c r="N58">
+        <v>2.6741999999999998E-2</v>
+      </c>
+      <c r="AW58" s="18">
         <v>3.4520000000000002E-2</v>
       </c>
-      <c r="AX58">
+      <c r="AX58" s="18">
         <v>2.3470000000000001E-2</v>
       </c>
       <c r="AZ58">
@@ -25378,16 +27326,22 @@
       </c>
     </row>
     <row r="59" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K59">
+      <c r="K59" s="18">
         <v>0.14645</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="18">
         <v>-2.6530000000000001E-2</v>
       </c>
-      <c r="AW59">
+      <c r="M59">
+        <v>1.9975E-2</v>
+      </c>
+      <c r="N59">
+        <v>2.444E-2</v>
+      </c>
+      <c r="AW59" s="18">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="AX59">
+      <c r="AX59" s="18">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="AZ59">
@@ -25400,16 +27354,22 @@
       </c>
     </row>
     <row r="60" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K60">
+      <c r="K60" s="18">
         <v>0.17033000000000001</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="18">
         <v>-2.631E-2</v>
       </c>
-      <c r="AW60">
+      <c r="M60">
+        <v>1.704E-2</v>
+      </c>
+      <c r="N60">
+        <v>2.2009999999999998E-2</v>
+      </c>
+      <c r="AW60" s="18">
         <v>1.925E-2</v>
       </c>
-      <c r="AX60">
+      <c r="AX60" s="18">
         <v>1.7180000000000001E-2</v>
       </c>
       <c r="AZ60">
@@ -25422,16 +27382,22 @@
       </c>
     </row>
     <row r="61" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K61">
+      <c r="K61" s="18">
         <v>0.19561999999999999</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="18">
         <v>-2.5839999999999998E-2</v>
       </c>
-      <c r="AW61">
+      <c r="M61">
+        <v>1.4333E-2</v>
+      </c>
+      <c r="N61">
+        <v>1.9428000000000001E-2</v>
+      </c>
+      <c r="AW61" s="18">
         <v>1.384E-2</v>
       </c>
-      <c r="AX61">
+      <c r="AX61" s="18">
         <v>1.43E-2</v>
       </c>
       <c r="AZ61">
@@ -25444,16 +27410,22 @@
       </c>
     </row>
     <row r="62" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K62">
+      <c r="K62" s="18">
         <v>0.22220999999999999</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="18">
         <v>-2.512E-2</v>
       </c>
-      <c r="AW62">
+      <c r="M62">
+        <v>1.1854999999999999E-2</v>
+      </c>
+      <c r="N62">
+        <v>1.6794E-2</v>
+      </c>
+      <c r="AW62" s="18">
         <v>6.8100000000000001E-3</v>
       </c>
-      <c r="AX62">
+      <c r="AX62" s="18">
         <v>9.5600000000000008E-3</v>
       </c>
       <c r="AZ62">
@@ -25466,16 +27438,22 @@
       </c>
     </row>
     <row r="63" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K63">
+      <c r="K63" s="18">
         <v>0.25</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="18">
         <v>-2.419E-2</v>
       </c>
-      <c r="AW63">
+      <c r="M63">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="N63">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="AW63" s="18">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AX63">
+      <c r="AX63" s="18">
         <v>7.6299999999999996E-3</v>
       </c>
       <c r="AZ63">
@@ -25488,16 +27466,22 @@
       </c>
     </row>
     <row r="64" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K64">
+      <c r="K64" s="18">
         <v>0.27886</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="18">
         <v>-2.308E-2</v>
       </c>
-      <c r="AW64">
+      <c r="M64">
+        <v>7.5989999999999999E-3</v>
+      </c>
+      <c r="N64">
+        <v>1.1877E-2</v>
+      </c>
+      <c r="AW64" s="18">
         <v>1.74E-3</v>
       </c>
-      <c r="AX64">
+      <c r="AX64" s="18">
         <v>4.3499999999999997E-3</v>
       </c>
       <c r="AZ64">
@@ -25510,16 +27494,22 @@
       </c>
     </row>
     <row r="65" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K65">
+      <c r="K65" s="18">
         <v>0.30865999999999999</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="18">
         <v>-2.1839999999999998E-2</v>
       </c>
-      <c r="AW65">
+      <c r="M65">
+        <v>5.8219999999999999E-3</v>
+      </c>
+      <c r="N65">
+        <v>9.7389999999999994E-3</v>
+      </c>
+      <c r="AW65" s="18">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="AX65">
+      <c r="AX65" s="18">
         <v>1.6100000000000001E-3</v>
       </c>
       <c r="AZ65">
@@ -25532,16 +27522,22 @@
       </c>
     </row>
     <row r="66" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K66">
+      <c r="K66" s="18">
         <v>0.33928000000000003</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="18">
         <v>-2.0469999999999999E-2</v>
       </c>
-      <c r="AW66">
+      <c r="M66">
+        <v>4.28E-3</v>
+      </c>
+      <c r="N66">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="AW66" s="18">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AX66">
+      <c r="AX66" s="18">
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AZ66">
@@ -25554,16 +27550,22 @@
       </c>
     </row>
     <row r="67" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K67">
+      <c r="K67" s="18">
         <v>0.37058999999999997</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="18">
         <v>-1.9040000000000001E-2</v>
       </c>
-      <c r="AW67">
+      <c r="M67">
+        <v>2.9729999999999999E-3</v>
+      </c>
+      <c r="N67">
+        <v>6.1869999999999998E-3</v>
+      </c>
+      <c r="AW67" s="18">
         <v>0</v>
       </c>
-      <c r="AX67">
+      <c r="AX67" s="18">
         <v>0</v>
       </c>
       <c r="AZ67">
@@ -25576,16 +27578,22 @@
       </c>
     </row>
     <row r="68" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K68">
+      <c r="K68" s="18">
         <v>0.40244999999999997</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="18">
         <v>-1.754E-2</v>
       </c>
-      <c r="AW68" s="4">
+      <c r="M68">
+        <v>1.903E-3</v>
+      </c>
+      <c r="N68">
+        <v>4.7590000000000002E-3</v>
+      </c>
+      <c r="AW68" s="19">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AX68" s="4">
+      <c r="AX68" s="19">
         <v>-3.8000000000000002E-4</v>
       </c>
       <c r="AZ68">
@@ -25598,16 +27606,22 @@
       </c>
     </row>
     <row r="69" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K69">
+      <c r="K69" s="18">
         <v>0.43474000000000002</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="18">
         <v>-1.602E-2</v>
       </c>
-      <c r="AW69">
+      <c r="M69">
+        <v>1.07E-3</v>
+      </c>
+      <c r="N69">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="AW69" s="18">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="AX69">
+      <c r="AX69" s="18">
         <v>-1.6100000000000001E-3</v>
       </c>
       <c r="AZ69">
@@ -25620,16 +27634,22 @@
       </c>
     </row>
     <row r="70" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K70">
+      <c r="K70" s="18">
         <v>0.46729999999999999</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="18">
         <v>-1.451E-2</v>
       </c>
-      <c r="AW70">
+      <c r="M70">
+        <v>4.75E-4</v>
+      </c>
+      <c r="N70">
+        <v>2.4429999999999999E-3</v>
+      </c>
+      <c r="AW70" s="18">
         <v>1.74E-3</v>
       </c>
-      <c r="AX70">
+      <c r="AX70" s="18">
         <v>-4.3499999999999997E-3</v>
       </c>
       <c r="AZ70">
@@ -25642,16 +27662,22 @@
       </c>
     </row>
     <row r="71" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K71">
+      <c r="K71" s="18">
         <v>0.5</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="18">
         <v>-1.3010000000000001E-2</v>
       </c>
-      <c r="AW71">
+      <c r="M71">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N71">
+        <v>1.3320000000000001E-3</v>
+      </c>
+      <c r="AW71" s="18">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AX71">
+      <c r="AX71" s="18">
         <v>-7.6299999999999996E-3</v>
       </c>
       <c r="AZ71">
@@ -25664,16 +27690,22 @@
       </c>
     </row>
     <row r="72" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K72">
+      <c r="K72" s="18">
         <v>0.53269999999999995</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="18">
         <v>-1.1560000000000001E-2</v>
       </c>
-      <c r="AW72">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="18">
         <v>6.8100000000000001E-3</v>
       </c>
-      <c r="AX72">
+      <c r="AX72" s="18">
         <v>-9.5600000000000008E-3</v>
       </c>
       <c r="AZ72">
@@ -25686,16 +27718,22 @@
       </c>
     </row>
     <row r="73" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K73">
+      <c r="K73" s="18">
         <v>0.56525999999999998</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="18">
         <v>-1.017E-2</v>
       </c>
-      <c r="AW73">
+      <c r="M73">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N73">
+        <v>-1.67E-3</v>
+      </c>
+      <c r="AW73" s="18">
         <v>1.384E-2</v>
       </c>
-      <c r="AX73">
+      <c r="AX73" s="18">
         <v>-1.43E-2</v>
       </c>
       <c r="AZ73">
@@ -25708,16 +27746,22 @@
       </c>
     </row>
     <row r="74" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K74">
+      <c r="K74" s="18">
         <v>0.59755000000000003</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="18">
         <v>-8.8500000000000002E-3</v>
       </c>
-      <c r="AW74">
+      <c r="M74">
+        <v>4.75E-4</v>
+      </c>
+      <c r="N74">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="AW74" s="18">
         <v>1.925E-2</v>
       </c>
-      <c r="AX74">
+      <c r="AX74" s="18">
         <v>-1.7180000000000001E-2</v>
       </c>
       <c r="AZ74">
@@ -25730,16 +27774,22 @@
       </c>
     </row>
     <row r="75" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K75">
+      <c r="K75" s="18">
         <v>0.62941000000000003</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="18">
         <v>-7.6099999999999996E-3</v>
       </c>
-      <c r="AW75">
+      <c r="M75">
+        <v>1.07E-3</v>
+      </c>
+      <c r="N75">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="AW75" s="18">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="AX75">
+      <c r="AX75" s="18">
         <v>-2.0299999999999999E-2</v>
       </c>
       <c r="AZ75">
@@ -25752,16 +27802,22 @@
       </c>
     </row>
     <row r="76" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K76">
+      <c r="K76" s="18">
         <v>0.66071999999999997</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="18">
         <v>-6.4599999999999996E-3</v>
       </c>
-      <c r="AW76">
+      <c r="M76">
+        <v>1.903E-3</v>
+      </c>
+      <c r="N76">
+        <v>-6.5970000000000004E-3</v>
+      </c>
+      <c r="AW76" s="18">
         <v>3.4520000000000002E-2</v>
       </c>
-      <c r="AX76">
+      <c r="AX76" s="18">
         <v>-2.3470000000000001E-2</v>
       </c>
       <c r="AZ76">
@@ -25774,16 +27830,22 @@
       </c>
     </row>
     <row r="77" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K77">
+      <c r="K77" s="18">
         <v>0.69133999999999995</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="18">
         <v>-5.4200000000000003E-3</v>
       </c>
-      <c r="AW77">
+      <c r="M77">
+        <v>2.9729999999999999E-3</v>
+      </c>
+      <c r="N77">
+        <v>-7.757E-3</v>
+      </c>
+      <c r="AW77" s="18">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="AX77">
+      <c r="AX77" s="18">
         <v>-3.1859999999999999E-2</v>
       </c>
       <c r="AZ77">
@@ -25796,16 +27858,22 @@
       </c>
     </row>
     <row r="78" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K78">
+      <c r="K78" s="18">
         <v>0.72114</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="18">
         <v>-4.4799999999999996E-3</v>
       </c>
-      <c r="AW78">
+      <c r="M78">
+        <v>4.28E-3</v>
+      </c>
+      <c r="N78">
+        <v>-8.8199999999999997E-3</v>
+      </c>
+      <c r="AW78" s="18">
         <v>7.5560000000000002E-2</v>
       </c>
-      <c r="AX78">
+      <c r="AX78" s="18">
         <v>-3.415E-2</v>
       </c>
       <c r="AZ78">
@@ -25818,16 +27886,22 @@
       </c>
     </row>
     <row r="79" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K79">
+      <c r="K79" s="18">
         <v>0.75</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="18">
         <v>-3.64E-3</v>
       </c>
-      <c r="AW79">
+      <c r="M79">
+        <v>5.8219999999999999E-3</v>
+      </c>
+      <c r="N79">
+        <v>-9.8989999999999998E-3</v>
+      </c>
+      <c r="AW79" s="18">
         <v>9.8250000000000004E-2</v>
       </c>
-      <c r="AX79">
+      <c r="AX79" s="18">
         <v>-3.8010000000000002E-2</v>
       </c>
       <c r="AZ79">
@@ -25840,16 +27914,22 @@
       </c>
     </row>
     <row r="80" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K80">
+      <c r="K80" s="18">
         <v>0.77778999999999998</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="18">
         <v>-2.9099999999999998E-3</v>
       </c>
-      <c r="AW80">
+      <c r="M80">
+        <v>7.5989999999999999E-3</v>
+      </c>
+      <c r="N80">
+        <v>-1.0987E-2</v>
+      </c>
+      <c r="AW80" s="18">
         <v>0.12166</v>
       </c>
-      <c r="AX80">
+      <c r="AX80" s="18">
         <v>-4.1029999999999997E-2</v>
       </c>
       <c r="AZ80">
@@ -25862,16 +27942,22 @@
       </c>
     </row>
     <row r="81" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K81">
+      <c r="K81" s="18">
         <v>0.80437999999999998</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="18">
         <v>-2.2699999999999999E-3</v>
       </c>
-      <c r="AW81">
+      <c r="M81">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="N81">
+        <v>-1.205E-2</v>
+      </c>
+      <c r="AW81" s="18">
         <v>0.13355</v>
       </c>
-      <c r="AX81">
+      <c r="AX81" s="18">
         <v>-4.2290000000000001E-2</v>
       </c>
       <c r="AZ81">
@@ -25884,16 +27970,22 @@
       </c>
     </row>
     <row r="82" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K82">
+      <c r="K82" s="18">
         <v>0.82004999999999995</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="18">
         <v>-1.9400000000000001E-3</v>
       </c>
-      <c r="AW82">
+      <c r="M82">
+        <v>1.1854999999999999E-2</v>
+      </c>
+      <c r="N82">
+        <v>-1.3063E-2</v>
+      </c>
+      <c r="AW82" s="18">
         <v>0.14554</v>
       </c>
-      <c r="AX82">
+      <c r="AX82" s="18">
         <v>-4.3380000000000002E-2</v>
       </c>
       <c r="AZ82">
@@ -25906,16 +27998,22 @@
       </c>
     </row>
     <row r="83" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K83">
+      <c r="K83" s="18">
         <v>0.89553000000000005</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="18">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="AW83">
+      <c r="M83">
+        <v>1.4333E-2</v>
+      </c>
+      <c r="N83">
+        <v>-1.4043999999999999E-2</v>
+      </c>
+      <c r="AW83" s="18">
         <v>0.15762000000000001</v>
       </c>
-      <c r="AX83">
+      <c r="AX83" s="18">
         <v>-4.4339999999999997E-2</v>
       </c>
       <c r="AZ83">
@@ -25928,16 +28026,22 @@
       </c>
     </row>
     <row r="84" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K84">
+      <c r="K84" s="18">
         <v>0.95184000000000002</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="18">
         <v>9.0799999999999995E-3</v>
       </c>
-      <c r="AW84">
+      <c r="M84">
+        <v>1.704E-2</v>
+      </c>
+      <c r="N84">
+        <v>-1.502E-2</v>
+      </c>
+      <c r="AW84" s="18">
         <v>0.20652000000000001</v>
       </c>
-      <c r="AX84">
+      <c r="AX84" s="18">
         <v>-4.6960000000000002E-2</v>
       </c>
       <c r="AZ84">
@@ -25950,16 +28054,22 @@
       </c>
     </row>
     <row r="85" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K85">
+      <c r="K85" s="18">
         <v>0.98662000000000005</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="18">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="AW85">
+      <c r="M85">
+        <v>1.9975E-2</v>
+      </c>
+      <c r="N85">
+        <v>-1.6012999999999999E-2</v>
+      </c>
+      <c r="AW85" s="18">
         <v>0.21884999999999999</v>
       </c>
-      <c r="AX85">
+      <c r="AX85" s="18">
         <v>-4.7359999999999999E-2</v>
       </c>
       <c r="AZ85">
@@ -25972,16 +28082,22 @@
       </c>
     </row>
     <row r="86" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="K86">
+      <c r="K86" s="18">
         <v>0.99839</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="18">
         <v>1.5949999999999999E-2</v>
       </c>
-      <c r="AW86">
+      <c r="M86">
+        <v>2.3139E-2</v>
+      </c>
+      <c r="N86">
+        <v>-1.7011999999999999E-2</v>
+      </c>
+      <c r="AW86" s="18">
         <v>0.23122000000000001</v>
       </c>
-      <c r="AX86">
+      <c r="AX86" s="18">
         <v>-4.7669999999999997E-2</v>
       </c>
       <c r="AZ86">
@@ -25994,322 +28110,562 @@
       </c>
     </row>
     <row r="87" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW87">
+      <c r="M87">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="N87">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AW87" s="18">
         <v>0.24362</v>
       </c>
-      <c r="AX87">
+      <c r="AX87" s="18">
         <v>-4.7910000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW88">
+      <c r="M88">
+        <v>3.0148999999999999E-2</v>
+      </c>
+      <c r="N88">
+        <v>-1.8956000000000001E-2</v>
+      </c>
+      <c r="AW88" s="18">
         <v>0.25603999999999999</v>
       </c>
-      <c r="AX88">
+      <c r="AX88" s="18">
         <v>-4.8070000000000002E-2</v>
       </c>
     </row>
     <row r="89" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW89">
+      <c r="M89">
+        <v>3.3994999999999997E-2</v>
+      </c>
+      <c r="N89">
+        <v>-1.9843E-2</v>
+      </c>
+      <c r="AW89" s="18">
         <v>0.26848</v>
       </c>
-      <c r="AX89">
+      <c r="AX89" s="18">
         <v>-4.8160000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW90">
+      <c r="M90">
+        <v>3.8059999999999997E-2</v>
+      </c>
+      <c r="N90">
+        <v>-2.0619999999999999E-2</v>
+      </c>
+      <c r="AW90" s="18">
         <v>0.29342000000000001</v>
       </c>
-      <c r="AX90">
+      <c r="AX90" s="18">
         <v>-4.8140000000000002E-2</v>
       </c>
     </row>
     <row r="91" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW91">
+      <c r="M91">
+        <v>4.2342999999999999E-2</v>
+      </c>
+      <c r="N91">
+        <v>-2.1264999999999999E-2</v>
+      </c>
+      <c r="AW91" s="18">
         <v>0.33093</v>
       </c>
-      <c r="AX91">
+      <c r="AX91" s="18">
         <v>-4.7699999999999999E-2</v>
       </c>
     </row>
     <row r="92" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW92">
+      <c r="M92">
+        <v>5.1560000000000002E-2</v>
+      </c>
+      <c r="N92">
+        <v>-2.2370000000000001E-2</v>
+      </c>
+      <c r="AW92" s="18">
         <v>0.34345999999999999</v>
       </c>
-      <c r="AX92">
+      <c r="AX92" s="18">
         <v>-4.7449999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW93">
+      <c r="M93">
+        <v>6.1636999999999997E-2</v>
+      </c>
+      <c r="N93">
+        <v>-2.3522999999999999E-2</v>
+      </c>
+      <c r="AW93" s="18">
         <v>0.35598999999999997</v>
       </c>
-      <c r="AX93">
+      <c r="AX93" s="18">
         <v>-4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW94">
+      <c r="M94">
+        <v>6.6989999999999994E-2</v>
+      </c>
+      <c r="N94">
+        <v>-2.4060000000000002E-2</v>
+      </c>
+      <c r="AW94" s="18">
         <v>0.36853000000000002</v>
       </c>
-      <c r="AX94">
+      <c r="AX94" s="18">
         <v>-4.6820000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW95">
+      <c r="M95">
+        <v>7.2548000000000001E-2</v>
+      </c>
+      <c r="N95">
+        <v>-2.4521000000000001E-2</v>
+      </c>
+      <c r="AW95" s="18">
         <v>0.38107999999999997</v>
       </c>
-      <c r="AX95">
+      <c r="AX95" s="18">
         <v>-4.6440000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="11:53" x14ac:dyDescent="0.25">
-      <c r="AW96">
+      <c r="M96">
+        <v>8.4269999999999998E-2</v>
+      </c>
+      <c r="N96">
+        <v>-2.5239999999999999E-2</v>
+      </c>
+      <c r="AW96" s="18">
         <v>0.40620000000000001</v>
       </c>
-      <c r="AX96">
+      <c r="AX96" s="18">
         <v>-4.5560000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW97">
+    <row r="97" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0.10332</v>
+      </c>
+      <c r="N97">
+        <v>-2.598E-2</v>
+      </c>
+      <c r="AW97" s="18">
         <v>0.43131999999999998</v>
       </c>
-      <c r="AX97">
+      <c r="AX97" s="18">
         <v>-4.453E-2</v>
       </c>
     </row>
-    <row r="98" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW98">
+    <row r="98" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0.12408</v>
+      </c>
+      <c r="N98">
+        <v>-2.6419999999999999E-2</v>
+      </c>
+      <c r="AW98" s="18">
         <v>0.46904000000000001</v>
       </c>
-      <c r="AX98">
+      <c r="AX98" s="18">
         <v>-4.274E-2</v>
       </c>
     </row>
-    <row r="99" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW99">
+    <row r="99" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0.14645</v>
+      </c>
+      <c r="N99">
+        <v>-2.6530000000000001E-2</v>
+      </c>
+      <c r="AW99" s="18">
         <v>0.48161999999999999</v>
       </c>
-      <c r="AX99">
+      <c r="AX99" s="18">
         <v>-4.2079999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW100">
+    <row r="100" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0.17033000000000001</v>
+      </c>
+      <c r="N100">
+        <v>-2.631E-2</v>
+      </c>
+      <c r="AW100" s="18">
         <v>0.49419999999999997</v>
       </c>
-      <c r="AX100">
+      <c r="AX100" s="18">
         <v>-4.1390000000000003E-2</v>
       </c>
     </row>
-    <row r="101" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW101">
+    <row r="101" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0.19561999999999999</v>
+      </c>
+      <c r="N101">
+        <v>-2.5839999999999998E-2</v>
+      </c>
+      <c r="AW101" s="18">
         <v>0.50678000000000001</v>
       </c>
-      <c r="AX101">
+      <c r="AX101" s="18">
         <v>-4.0669999999999998E-2</v>
       </c>
     </row>
-    <row r="102" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW102">
+    <row r="102" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0.22220999999999999</v>
+      </c>
+      <c r="N102">
+        <v>-2.512E-2</v>
+      </c>
+      <c r="AW102" s="18">
         <v>0.54454999999999998</v>
       </c>
-      <c r="AX102">
+      <c r="AX102" s="18">
         <v>-3.8359999999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW103">
+    <row r="103" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>0.25</v>
+      </c>
+      <c r="N103">
+        <v>-2.419E-2</v>
+      </c>
+      <c r="AW103" s="18">
         <v>0.55715000000000003</v>
       </c>
-      <c r="AX103">
+      <c r="AX103" s="18">
         <v>-3.7539999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW104">
+    <row r="104" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0.27886</v>
+      </c>
+      <c r="N104">
+        <v>-2.308E-2</v>
+      </c>
+      <c r="AW104" s="18">
         <v>0.56974999999999998</v>
       </c>
-      <c r="AX104">
+      <c r="AX104" s="18">
         <v>-3.6700000000000003E-2</v>
       </c>
     </row>
-    <row r="105" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW105">
+    <row r="105" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0.30865999999999999</v>
+      </c>
+      <c r="N105">
+        <v>-2.1839999999999998E-2</v>
+      </c>
+      <c r="AW105" s="18">
         <v>0.59494999999999998</v>
       </c>
-      <c r="AX105">
+      <c r="AX105" s="18">
         <v>-3.4959999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW106">
+    <row r="106" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0.40244999999999997</v>
+      </c>
+      <c r="N106">
+        <v>-1.754E-2</v>
+      </c>
+      <c r="AW106" s="18">
         <v>0.60755999999999999</v>
       </c>
-      <c r="AX106">
+      <c r="AX106" s="18">
         <v>-3.406E-2</v>
       </c>
     </row>
-    <row r="107" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW107">
+    <row r="107" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="N107">
+        <v>-1.451E-2</v>
+      </c>
+      <c r="AW107" s="18">
         <v>0.62017</v>
       </c>
-      <c r="AX107">
+      <c r="AX107" s="18">
         <v>-3.3149999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW108">
+    <row r="108" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0.5</v>
+      </c>
+      <c r="N108">
+        <v>-1.3010000000000001E-2</v>
+      </c>
+      <c r="AW108" s="18">
         <v>0.65800999999999998</v>
       </c>
-      <c r="AX108">
+      <c r="AX108" s="18">
         <v>-3.031E-2</v>
       </c>
     </row>
-    <row r="109" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW109">
+    <row r="109" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="N109">
+        <v>-1.1560000000000001E-2</v>
+      </c>
+      <c r="AW109" s="18">
         <v>0.67062999999999995</v>
       </c>
-      <c r="AX109">
+      <c r="AX109" s="18">
         <v>-2.9329999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW110">
+    <row r="110" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0.59755000000000003</v>
+      </c>
+      <c r="N110">
+        <v>-8.8500000000000002E-3</v>
+      </c>
+      <c r="AW110" s="18">
         <v>0.68325000000000002</v>
       </c>
-      <c r="AX110">
+      <c r="AX110" s="18">
         <v>-2.8340000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW111">
+    <row r="111" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0.62941000000000003</v>
+      </c>
+      <c r="N111">
+        <v>-7.6099999999999996E-3</v>
+      </c>
+      <c r="AW111" s="18">
         <v>0.69586999999999999</v>
       </c>
-      <c r="AX111">
+      <c r="AX111" s="18">
         <v>-2.734E-2</v>
       </c>
     </row>
-    <row r="112" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW112">
+    <row r="112" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>0.66071999999999997</v>
+      </c>
+      <c r="N112">
+        <v>-6.4599999999999996E-3</v>
+      </c>
+      <c r="AW112" s="18">
         <v>0.72111999999999998</v>
       </c>
-      <c r="AX112">
+      <c r="AX112" s="18">
         <v>-2.5309999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW113">
+    <row r="113" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>0.69133999999999995</v>
+      </c>
+      <c r="N113">
+        <v>-5.4200000000000003E-3</v>
+      </c>
+      <c r="AW113" s="18">
         <v>0.73373999999999995</v>
       </c>
-      <c r="AX113">
+      <c r="AX113" s="18">
         <v>-2.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW114">
+    <row r="114" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>0.72114</v>
+      </c>
+      <c r="N114">
+        <v>-4.4799999999999996E-3</v>
+      </c>
+      <c r="AW114" s="18">
         <v>0.77159999999999995</v>
       </c>
-      <c r="AX114">
+      <c r="AX114" s="18">
         <v>-2.1129999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW115">
+    <row r="115" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>0.75</v>
+      </c>
+      <c r="N115">
+        <v>-3.64E-3</v>
+      </c>
+      <c r="AW115" s="18">
         <v>0.78422000000000003</v>
       </c>
-      <c r="AX115">
+      <c r="AX115" s="18">
         <v>-2.0060000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW116">
+    <row r="116" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>0.77778999999999998</v>
+      </c>
+      <c r="N116">
+        <v>-2.9099999999999998E-3</v>
+      </c>
+      <c r="AW116" s="18">
         <v>0.79683000000000004</v>
       </c>
-      <c r="AX116">
+      <c r="AX116" s="18">
         <v>-1.898E-2</v>
       </c>
     </row>
-    <row r="117" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW117">
+    <row r="117" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>0.80437999999999998</v>
+      </c>
+      <c r="N117">
+        <v>-2.2699999999999999E-3</v>
+      </c>
+      <c r="AW117" s="18">
         <v>0.80944000000000005</v>
       </c>
-      <c r="AX117">
+      <c r="AX117" s="18">
         <v>-1.789E-2</v>
       </c>
     </row>
-    <row r="118" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW118">
+    <row r="118" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>0.81008000000000002</v>
+      </c>
+      <c r="N118">
+        <v>-2.3319999999999999E-3</v>
+      </c>
+      <c r="AW118" s="18">
         <v>0.82206000000000001</v>
       </c>
-      <c r="AX118">
+      <c r="AX118" s="18">
         <v>-1.6789999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW119">
+    <row r="119" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>0.82004999999999995</v>
+      </c>
+      <c r="N119">
+        <v>-1.9400000000000001E-3</v>
+      </c>
+      <c r="AW119" s="18">
         <v>0.84728000000000003</v>
       </c>
-      <c r="AX119">
+      <c r="AX119" s="18">
         <v>-1.455E-2</v>
       </c>
     </row>
-    <row r="120" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW120">
+    <row r="120" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>0.84077800000000003</v>
+      </c>
+      <c r="N120">
+        <v>-9.2800000000000001E-4</v>
+      </c>
+      <c r="AW120" s="18">
         <v>0.88514999999999999</v>
       </c>
-      <c r="AX120">
+      <c r="AX120" s="18">
         <v>-1.1140000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW121">
+    <row r="121" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>0.86804099999999995</v>
+      </c>
+      <c r="N121">
+        <v>6.2200000000000005E-4</v>
+      </c>
+      <c r="AW121" s="18">
         <v>0.89778000000000002</v>
       </c>
-      <c r="AX121">
+      <c r="AX121" s="18">
         <v>-9.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="122" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW122">
+    <row r="122" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>0.89553000000000005</v>
+      </c>
+      <c r="N122">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AW122" s="18">
         <v>0.92306999999999995</v>
       </c>
-      <c r="AX122">
+      <c r="AX122" s="18">
         <v>-7.6899999999999998E-3</v>
       </c>
     </row>
-    <row r="123" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW123">
+    <row r="123" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>0.91827400000000003</v>
+      </c>
+      <c r="N123">
+        <v>4.6979999999999999E-3</v>
+      </c>
+      <c r="AW123" s="18">
         <v>0.93571000000000004</v>
       </c>
-      <c r="AX123">
+      <c r="AX123" s="18">
         <v>-6.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="124" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW124">
+    <row r="124" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>0.95184000000000002</v>
+      </c>
+      <c r="N124">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="AW124" s="18">
         <v>0.94833000000000001</v>
       </c>
-      <c r="AX124">
+      <c r="AX124" s="18">
         <v>-5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="125" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW125">
+    <row r="125" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>0.98662000000000005</v>
+      </c>
+      <c r="N125">
+        <v>1.4109999999999999E-2</v>
+      </c>
+      <c r="AW125" s="18">
         <v>0.96091000000000004</v>
       </c>
-      <c r="AX125">
+      <c r="AX125" s="18">
         <v>-4.28E-3</v>
       </c>
     </row>
-    <row r="126" spans="49:50" x14ac:dyDescent="0.25">
-      <c r="AW126">
+    <row r="126" spans="13:50" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>0.99839</v>
+      </c>
+      <c r="N126">
+        <v>1.5949999999999999E-2</v>
+      </c>
+      <c r="AW126" s="18">
         <v>1</v>
       </c>
-      <c r="AX126">
+      <c r="AX126" s="18">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
